--- a/Model/DLinear/processing_output/CMG/811/close_train_scaler.xlsx
+++ b/Model/DLinear/processing_output/CMG/811/close_train_scaler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B877"/>
+  <dimension ref="A1:B920"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.08867999999999999</v>
+        <v>0.08497</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.10539</v>
+        <v>0.10098</v>
       </c>
     </row>
     <row r="4">
@@ -461,7 +461,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1221</v>
+        <v>0.11699</v>
       </c>
     </row>
     <row r="5">
@@ -469,7 +469,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.10846</v>
+        <v>0.10392</v>
       </c>
     </row>
     <row r="6">
@@ -477,7 +477,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.10061</v>
+        <v>0.09641</v>
       </c>
     </row>
     <row r="7">
@@ -485,7 +485,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.10607</v>
+        <v>0.10163</v>
       </c>
     </row>
     <row r="8">
@@ -493,7 +493,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.10198</v>
+        <v>0.09771000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -501,7 +501,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.12312</v>
+        <v>0.11797</v>
       </c>
     </row>
     <row r="10">
@@ -509,7 +509,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.12312</v>
+        <v>0.11797</v>
       </c>
     </row>
     <row r="11">
@@ -517,7 +517,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.12312</v>
+        <v>0.11797</v>
       </c>
     </row>
     <row r="12">
@@ -525,7 +525,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.12926</v>
+        <v>0.12386</v>
       </c>
     </row>
     <row r="13">
@@ -533,7 +533,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.13267</v>
+        <v>0.12712</v>
       </c>
     </row>
     <row r="14">
@@ -541,7 +541,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.11664</v>
+        <v>0.11176</v>
       </c>
     </row>
     <row r="15">
@@ -549,7 +549,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.10846</v>
+        <v>0.10392</v>
       </c>
     </row>
     <row r="16">
@@ -557,7 +557,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.08458</v>
+        <v>0.08105</v>
       </c>
     </row>
     <row r="17">
@@ -565,7 +565,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.09719999999999999</v>
+        <v>0.09314</v>
       </c>
     </row>
     <row r="18">
@@ -573,7 +573,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.08697000000000001</v>
+        <v>0.08333</v>
       </c>
     </row>
     <row r="19">
@@ -581,7 +581,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.08765000000000001</v>
+        <v>0.08399</v>
       </c>
     </row>
     <row r="20">
@@ -589,7 +589,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.10709</v>
+        <v>0.10261</v>
       </c>
     </row>
     <row r="21">
@@ -597,7 +597,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.11255</v>
+        <v>0.10784</v>
       </c>
     </row>
     <row r="22">
@@ -605,7 +605,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.10846</v>
+        <v>0.10392</v>
       </c>
     </row>
     <row r="23">
@@ -613,7 +613,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.103</v>
+        <v>0.09869</v>
       </c>
     </row>
     <row r="24">
@@ -621,7 +621,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.10846</v>
+        <v>0.10392</v>
       </c>
     </row>
     <row r="25">
@@ -629,7 +629,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.10778</v>
+        <v>0.10327</v>
       </c>
     </row>
     <row r="26">
@@ -637,7 +637,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.10778</v>
+        <v>0.10327</v>
       </c>
     </row>
     <row r="27">
@@ -645,7 +645,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.14052</v>
+        <v>0.13464</v>
       </c>
     </row>
     <row r="28">
@@ -653,7 +653,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.16951</v>
+        <v>0.16242</v>
       </c>
     </row>
     <row r="29">
@@ -661,7 +661,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.15348</v>
+        <v>0.14706</v>
       </c>
     </row>
     <row r="30">
@@ -669,7 +669,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.15007</v>
+        <v>0.14379</v>
       </c>
     </row>
     <row r="31">
@@ -677,7 +677,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.15996</v>
+        <v>0.15327</v>
       </c>
     </row>
     <row r="32">
@@ -685,7 +685,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.15655</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="33">
@@ -693,7 +693,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.14768</v>
+        <v>0.1415</v>
       </c>
     </row>
     <row r="34">
@@ -701,7 +701,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.12449</v>
+        <v>0.11928</v>
       </c>
     </row>
     <row r="35">
@@ -709,7 +709,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.10368</v>
+        <v>0.09934999999999999</v>
       </c>
     </row>
     <row r="36">
@@ -717,7 +717,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.11187</v>
+        <v>0.10719</v>
       </c>
     </row>
     <row r="37">
@@ -725,7 +725,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.10709</v>
+        <v>0.10261</v>
       </c>
     </row>
     <row r="38">
@@ -733,7 +733,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.11187</v>
+        <v>0.10719</v>
       </c>
     </row>
     <row r="39">
@@ -741,7 +741,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.11255</v>
+        <v>0.10784</v>
       </c>
     </row>
     <row r="40">
@@ -749,7 +749,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.11187</v>
+        <v>0.10719</v>
       </c>
     </row>
     <row r="41">
@@ -757,7 +757,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.11494</v>
+        <v>0.11013</v>
       </c>
     </row>
     <row r="42">
@@ -765,7 +765,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.08117000000000001</v>
+        <v>0.07778</v>
       </c>
     </row>
     <row r="43">
@@ -773,7 +773,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.08935999999999999</v>
+        <v>0.08562</v>
       </c>
     </row>
     <row r="44">
@@ -781,7 +781,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.09106</v>
+        <v>0.08724999999999999</v>
       </c>
     </row>
     <row r="45">
@@ -789,7 +789,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.08629000000000001</v>
+        <v>0.08268</v>
       </c>
     </row>
     <row r="46">
@@ -797,7 +797,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.08629000000000001</v>
+        <v>0.08268</v>
       </c>
     </row>
     <row r="47">
@@ -805,7 +805,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.07879</v>
+        <v>0.07549</v>
       </c>
     </row>
     <row r="48">
@@ -813,7 +813,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.08288</v>
+        <v>0.07940999999999999</v>
       </c>
     </row>
     <row r="49">
@@ -821,7 +821,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.10061</v>
+        <v>0.09641</v>
       </c>
     </row>
     <row r="50">
@@ -829,7 +829,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09243</v>
+        <v>0.08856</v>
       </c>
     </row>
     <row r="51">
@@ -837,7 +837,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.10368</v>
+        <v>0.09934999999999999</v>
       </c>
     </row>
     <row r="52">
@@ -845,7 +845,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.10061</v>
+        <v>0.09641</v>
       </c>
     </row>
     <row r="53">
@@ -853,7 +853,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.11494</v>
+        <v>0.11013</v>
       </c>
     </row>
     <row r="54">
@@ -861,7 +861,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.13745</v>
+        <v>0.1317</v>
       </c>
     </row>
     <row r="55">
@@ -869,7 +869,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.15348</v>
+        <v>0.14706</v>
       </c>
     </row>
     <row r="56">
@@ -877,7 +877,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.14052</v>
+        <v>0.13464</v>
       </c>
     </row>
     <row r="57">
@@ -885,7 +885,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.15655</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="58">
@@ -893,7 +893,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.17258</v>
+        <v>0.16536</v>
       </c>
     </row>
     <row r="59">
@@ -901,7 +901,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.20771</v>
+        <v>0.19902</v>
       </c>
     </row>
     <row r="60">
@@ -909,7 +909,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.22851</v>
+        <v>0.21895</v>
       </c>
     </row>
     <row r="61">
@@ -917,7 +917,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.26194</v>
+        <v>0.25098</v>
       </c>
     </row>
     <row r="62">
@@ -925,7 +925,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.21794</v>
+        <v>0.20882</v>
       </c>
     </row>
     <row r="63">
@@ -933,7 +933,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.19679</v>
+        <v>0.18856</v>
       </c>
     </row>
     <row r="64">
@@ -941,7 +941,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.15825</v>
+        <v>0.15163</v>
       </c>
     </row>
     <row r="65">
@@ -949,7 +949,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.1661</v>
+        <v>0.15915</v>
       </c>
     </row>
     <row r="66">
@@ -957,7 +957,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.18076</v>
+        <v>0.1732</v>
       </c>
     </row>
     <row r="67">
@@ -965,7 +965,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.1927</v>
+        <v>0.18464</v>
       </c>
     </row>
     <row r="68">
@@ -973,7 +973,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.19338</v>
+        <v>0.18529</v>
       </c>
     </row>
     <row r="69">
@@ -981,7 +981,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.20703</v>
+        <v>0.19837</v>
       </c>
     </row>
     <row r="70">
@@ -989,7 +989,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.23329</v>
+        <v>0.22353</v>
       </c>
     </row>
     <row r="71">
@@ -997,7 +997,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.22374</v>
+        <v>0.21438</v>
       </c>
     </row>
     <row r="72">
@@ -1005,7 +1005,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.20157</v>
+        <v>0.19314</v>
       </c>
     </row>
     <row r="73">
@@ -1013,7 +1013,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.21862</v>
+        <v>0.20948</v>
       </c>
     </row>
     <row r="74">
@@ -1021,7 +1021,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.21794</v>
+        <v>0.20882</v>
       </c>
     </row>
     <row r="75">
@@ -1029,7 +1029,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.21248</v>
+        <v>0.20359</v>
       </c>
     </row>
     <row r="76">
@@ -1037,7 +1037,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.20907</v>
+        <v>0.20033</v>
       </c>
     </row>
     <row r="77">
@@ -1045,7 +1045,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.21385</v>
+        <v>0.2049</v>
       </c>
     </row>
     <row r="78">
@@ -1053,7 +1053,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.22851</v>
+        <v>0.21895</v>
       </c>
     </row>
     <row r="79">
@@ -1061,7 +1061,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.26057</v>
+        <v>0.24967</v>
       </c>
     </row>
     <row r="80">
@@ -1069,7 +1069,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.25716</v>
+        <v>0.24641</v>
       </c>
     </row>
     <row r="81">
@@ -1077,7 +1077,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.24693</v>
+        <v>0.2366</v>
       </c>
     </row>
     <row r="82">
@@ -1085,7 +1085,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.23977</v>
+        <v>0.22974</v>
       </c>
     </row>
     <row r="83">
@@ -1093,7 +1093,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.23158</v>
+        <v>0.2219</v>
       </c>
     </row>
     <row r="84">
@@ -1101,7 +1101,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.23636</v>
+        <v>0.22647</v>
       </c>
     </row>
     <row r="85">
@@ -1109,7 +1109,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.23977</v>
+        <v>0.22974</v>
       </c>
     </row>
     <row r="86">
@@ -1117,7 +1117,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.24284</v>
+        <v>0.23268</v>
       </c>
     </row>
     <row r="87">
@@ -1125,7 +1125,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.23636</v>
+        <v>0.22647</v>
       </c>
     </row>
     <row r="88">
@@ -1133,7 +1133,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.23465</v>
+        <v>0.22484</v>
       </c>
     </row>
     <row r="89">
@@ -1141,7 +1141,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.2292</v>
+        <v>0.21961</v>
       </c>
     </row>
     <row r="90">
@@ -1149,7 +1149,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.21248</v>
+        <v>0.20359</v>
       </c>
     </row>
     <row r="91">
@@ -1157,7 +1157,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.22374</v>
+        <v>0.21438</v>
       </c>
     </row>
     <row r="92">
@@ -1165,7 +1165,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.22681</v>
+        <v>0.21732</v>
       </c>
     </row>
     <row r="93">
@@ -1173,7 +1173,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.24284</v>
+        <v>0.23268</v>
       </c>
     </row>
     <row r="94">
@@ -1181,7 +1181,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.23874</v>
+        <v>0.22876</v>
       </c>
     </row>
     <row r="95">
@@ -1189,7 +1189,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.24284</v>
+        <v>0.23268</v>
       </c>
     </row>
     <row r="96">
@@ -1197,7 +1197,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.28513</v>
+        <v>0.2732</v>
       </c>
     </row>
     <row r="97">
@@ -1205,7 +1205,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.2998</v>
+        <v>0.28725</v>
       </c>
     </row>
     <row r="98">
@@ -1213,7 +1213,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.28445</v>
+        <v>0.27255</v>
       </c>
     </row>
     <row r="99">
@@ -1221,7 +1221,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.27729</v>
+        <v>0.26569</v>
       </c>
     </row>
     <row r="100">
@@ -1229,7 +1229,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.29229</v>
+        <v>0.28007</v>
       </c>
     </row>
     <row r="101">
@@ -1237,7 +1237,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.31924</v>
+        <v>0.30588</v>
       </c>
     </row>
     <row r="102">
@@ -1245,7 +1245,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.33458</v>
+        <v>0.32059</v>
       </c>
     </row>
     <row r="103">
@@ -1253,7 +1253,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.33288</v>
+        <v>0.31895</v>
       </c>
     </row>
     <row r="104">
@@ -1261,7 +1261,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.33663</v>
+        <v>0.32255</v>
       </c>
     </row>
     <row r="105">
@@ -1269,7 +1269,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.33117</v>
+        <v>0.31732</v>
       </c>
     </row>
     <row r="106">
@@ -1277,7 +1277,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.28274</v>
+        <v>0.27092</v>
       </c>
     </row>
     <row r="107">
@@ -1285,7 +1285,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.27422</v>
+        <v>0.26275</v>
       </c>
     </row>
     <row r="108">
@@ -1293,7 +1293,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.29673</v>
+        <v>0.28431</v>
       </c>
     </row>
     <row r="109">
@@ -1301,7 +1301,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.27285</v>
+        <v>0.26144</v>
       </c>
     </row>
     <row r="110">
@@ -1309,7 +1309,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.26671</v>
+        <v>0.25556</v>
       </c>
     </row>
     <row r="111">
@@ -1317,7 +1317,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.26057</v>
+        <v>0.24967</v>
       </c>
     </row>
     <row r="112">
@@ -1325,7 +1325,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.26398</v>
+        <v>0.25294</v>
       </c>
     </row>
     <row r="113">
@@ -1333,7 +1333,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.28479</v>
+        <v>0.27288</v>
       </c>
     </row>
     <row r="114">
@@ -1341,7 +1341,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.28479</v>
+        <v>0.27288</v>
       </c>
     </row>
     <row r="115">
@@ -1349,7 +1349,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.25887</v>
+        <v>0.24804</v>
       </c>
     </row>
     <row r="116">
@@ -1357,7 +1357,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.30286</v>
+        <v>0.2902</v>
       </c>
     </row>
     <row r="117">
@@ -1365,7 +1365,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.32196</v>
+        <v>0.3085</v>
       </c>
     </row>
     <row r="118">
@@ -1373,7 +1373,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.35027</v>
+        <v>0.33562</v>
       </c>
     </row>
     <row r="119">
@@ -1381,7 +1381,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.33458</v>
+        <v>0.32059</v>
       </c>
     </row>
     <row r="120">
@@ -1389,7 +1389,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.34141</v>
+        <v>0.32712</v>
       </c>
     </row>
     <row r="121">
@@ -1397,7 +1397,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.34004</v>
+        <v>0.32582</v>
       </c>
     </row>
     <row r="122">
@@ -1405,7 +1405,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.34413</v>
+        <v>0.32974</v>
       </c>
     </row>
     <row r="123">
@@ -1413,7 +1413,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.33458</v>
+        <v>0.32059</v>
       </c>
     </row>
     <row r="124">
@@ -1421,7 +1421,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.31685</v>
+        <v>0.30359</v>
       </c>
     </row>
     <row r="125">
@@ -1429,7 +1429,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.32538</v>
+        <v>0.31176</v>
       </c>
     </row>
     <row r="126">
@@ -1437,7 +1437,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.31207</v>
+        <v>0.29902</v>
       </c>
     </row>
     <row r="127">
@@ -1445,7 +1445,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.30866</v>
+        <v>0.29575</v>
       </c>
     </row>
     <row r="128">
@@ -1453,7 +1453,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.31412</v>
+        <v>0.30098</v>
       </c>
     </row>
     <row r="129">
@@ -1461,7 +1461,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.30218</v>
+        <v>0.28954</v>
       </c>
     </row>
     <row r="130">
@@ -1469,7 +1469,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.29502</v>
+        <v>0.28268</v>
       </c>
     </row>
     <row r="131">
@@ -1477,7 +1477,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.2899</v>
+        <v>0.27778</v>
       </c>
     </row>
     <row r="132">
@@ -1485,7 +1485,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.29161</v>
+        <v>0.27941</v>
       </c>
     </row>
     <row r="133">
@@ -1493,7 +1493,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0.28479</v>
+        <v>0.27288</v>
       </c>
     </row>
     <row r="134">
@@ -1501,7 +1501,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.26739</v>
+        <v>0.25621</v>
       </c>
     </row>
     <row r="135">
@@ -1509,7 +1509,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.26569</v>
+        <v>0.25458</v>
       </c>
     </row>
     <row r="136">
@@ -1517,7 +1517,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.29332</v>
+        <v>0.28105</v>
       </c>
     </row>
     <row r="137">
@@ -1525,7 +1525,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.30014</v>
+        <v>0.28758</v>
       </c>
     </row>
     <row r="138">
@@ -1533,7 +1533,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>0.30014</v>
+        <v>0.28758</v>
       </c>
     </row>
     <row r="139">
@@ -1541,7 +1541,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0.29332</v>
+        <v>0.28105</v>
       </c>
     </row>
     <row r="140">
@@ -1549,7 +1549,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0.2899</v>
+        <v>0.27778</v>
       </c>
     </row>
     <row r="141">
@@ -1557,7 +1557,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.2899</v>
+        <v>0.27778</v>
       </c>
     </row>
     <row r="142">
@@ -1565,7 +1565,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.27422</v>
+        <v>0.26275</v>
       </c>
     </row>
     <row r="143">
@@ -1573,7 +1573,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.27285</v>
+        <v>0.26144</v>
       </c>
     </row>
     <row r="144">
@@ -1581,7 +1581,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.25955</v>
+        <v>0.24869</v>
       </c>
     </row>
     <row r="145">
@@ -1589,7 +1589,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>0.26569</v>
+        <v>0.25458</v>
       </c>
     </row>
     <row r="146">
@@ -1597,7 +1597,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0.26398</v>
+        <v>0.25294</v>
       </c>
     </row>
     <row r="147">
@@ -1605,7 +1605,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0.25614</v>
+        <v>0.24542</v>
       </c>
     </row>
     <row r="148">
@@ -1613,7 +1613,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>0.27763</v>
+        <v>0.26601</v>
       </c>
     </row>
     <row r="149">
@@ -1621,7 +1621,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>0.27626</v>
+        <v>0.26471</v>
       </c>
     </row>
     <row r="150">
@@ -1629,7 +1629,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0.2708</v>
+        <v>0.25948</v>
       </c>
     </row>
     <row r="151">
@@ -1637,7 +1637,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0.28888</v>
+        <v>0.2768</v>
       </c>
     </row>
     <row r="152">
@@ -1645,7 +1645,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>0.28479</v>
+        <v>0.27288</v>
       </c>
     </row>
     <row r="153">
@@ -1653,7 +1653,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>0.27422</v>
+        <v>0.26275</v>
       </c>
     </row>
     <row r="154">
@@ -1661,7 +1661,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>0.28138</v>
+        <v>0.26961</v>
       </c>
     </row>
     <row r="155">
@@ -1669,7 +1669,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>0.28138</v>
+        <v>0.26961</v>
       </c>
     </row>
     <row r="156">
@@ -1677,7 +1677,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>0.2882</v>
+        <v>0.27614</v>
       </c>
     </row>
     <row r="157">
@@ -1685,7 +1685,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>0.2882</v>
+        <v>0.27614</v>
       </c>
     </row>
     <row r="158">
@@ -1693,7 +1693,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>0.2882</v>
+        <v>0.27614</v>
       </c>
     </row>
     <row r="159">
@@ -1701,7 +1701,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>0.28206</v>
+        <v>0.27026</v>
       </c>
     </row>
     <row r="160">
@@ -1709,7 +1709,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>0.28479</v>
+        <v>0.27288</v>
       </c>
     </row>
     <row r="161">
@@ -1717,7 +1717,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>0.29332</v>
+        <v>0.28105</v>
       </c>
     </row>
     <row r="162">
@@ -1725,7 +1725,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>0.28888</v>
+        <v>0.2768</v>
       </c>
     </row>
     <row r="163">
@@ -1733,7 +1733,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>0.27422</v>
+        <v>0.26275</v>
       </c>
     </row>
     <row r="164">
@@ -1741,7 +1741,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>0.2899</v>
+        <v>0.27778</v>
       </c>
     </row>
     <row r="165">
@@ -1749,7 +1749,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>0.30014</v>
+        <v>0.28758</v>
       </c>
     </row>
     <row r="166">
@@ -1757,7 +1757,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>0.30628</v>
+        <v>0.29346</v>
       </c>
     </row>
     <row r="167">
@@ -1765,7 +1765,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>0.29673</v>
+        <v>0.28431</v>
       </c>
     </row>
     <row r="168">
@@ -1773,7 +1773,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>0.29332</v>
+        <v>0.28105</v>
       </c>
     </row>
     <row r="169">
@@ -1781,7 +1781,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>0.29332</v>
+        <v>0.28105</v>
       </c>
     </row>
     <row r="170">
@@ -1789,7 +1789,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>0.29161</v>
+        <v>0.27941</v>
       </c>
     </row>
     <row r="171">
@@ -1797,7 +1797,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>0.28888</v>
+        <v>0.2768</v>
       </c>
     </row>
     <row r="172">
@@ -1805,7 +1805,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>0.29161</v>
+        <v>0.27941</v>
       </c>
     </row>
     <row r="173">
@@ -1813,7 +1813,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>0.29843</v>
+        <v>0.28595</v>
       </c>
     </row>
     <row r="174">
@@ -1821,7 +1821,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>0.29673</v>
+        <v>0.28431</v>
       </c>
     </row>
     <row r="175">
@@ -1829,7 +1829,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>0.29843</v>
+        <v>0.28595</v>
       </c>
     </row>
     <row r="176">
@@ -1837,7 +1837,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>0.30218</v>
+        <v>0.28954</v>
       </c>
     </row>
     <row r="177">
@@ -1845,7 +1845,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>0.30525</v>
+        <v>0.29248</v>
       </c>
     </row>
     <row r="178">
@@ -1853,7 +1853,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>0.31071</v>
+        <v>0.29771</v>
       </c>
     </row>
     <row r="179">
@@ -1861,7 +1861,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>0.30866</v>
+        <v>0.29575</v>
       </c>
     </row>
     <row r="180">
@@ -1869,7 +1869,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>0.30628</v>
+        <v>0.29346</v>
       </c>
     </row>
     <row r="181">
@@ -1877,7 +1877,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>0.30218</v>
+        <v>0.28954</v>
       </c>
     </row>
     <row r="182">
@@ -1885,7 +1885,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>0.29945</v>
+        <v>0.28693</v>
       </c>
     </row>
     <row r="183">
@@ -1893,7 +1893,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>0.294</v>
+        <v>0.2817</v>
       </c>
     </row>
     <row r="184">
@@ -1901,7 +1901,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>0.294</v>
+        <v>0.2817</v>
       </c>
     </row>
     <row r="185">
@@ -1909,7 +1909,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>0.28479</v>
+        <v>0.27288</v>
       </c>
     </row>
     <row r="186">
@@ -1917,7 +1917,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>0.2882</v>
+        <v>0.27614</v>
       </c>
     </row>
     <row r="187">
@@ -1925,7 +1925,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>0.28479</v>
+        <v>0.27288</v>
       </c>
     </row>
     <row r="188">
@@ -1933,7 +1933,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>0.28206</v>
+        <v>0.27026</v>
       </c>
     </row>
     <row r="189">
@@ -1941,7 +1941,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>0.28274</v>
+        <v>0.27092</v>
       </c>
     </row>
     <row r="190">
@@ -1949,7 +1949,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>0.28274</v>
+        <v>0.27092</v>
       </c>
     </row>
     <row r="191">
@@ -1957,7 +1957,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>0.28138</v>
+        <v>0.26961</v>
       </c>
     </row>
     <row r="192">
@@ -1965,7 +1965,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>0.28138</v>
+        <v>0.26961</v>
       </c>
     </row>
     <row r="193">
@@ -1973,7 +1973,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>0.26739</v>
+        <v>0.25621</v>
       </c>
     </row>
     <row r="194">
@@ -1981,7 +1981,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>0.2691</v>
+        <v>0.25784</v>
       </c>
     </row>
     <row r="195">
@@ -1989,7 +1989,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>0.27524</v>
+        <v>0.26373</v>
       </c>
     </row>
     <row r="196">
@@ -1997,7 +1997,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>0.28479</v>
+        <v>0.27288</v>
       </c>
     </row>
     <row r="197">
@@ -2005,7 +2005,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>0.28206</v>
+        <v>0.27026</v>
       </c>
     </row>
     <row r="198">
@@ -2013,7 +2013,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>0.27626</v>
+        <v>0.26471</v>
       </c>
     </row>
     <row r="199">
@@ -2021,7 +2021,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>0.27626</v>
+        <v>0.26471</v>
       </c>
     </row>
     <row r="200">
@@ -2029,7 +2029,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>0.27422</v>
+        <v>0.26275</v>
       </c>
     </row>
     <row r="201">
@@ -2037,7 +2037,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>0.26398</v>
+        <v>0.25294</v>
       </c>
     </row>
     <row r="202">
@@ -2045,7 +2045,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>0.26398</v>
+        <v>0.25294</v>
       </c>
     </row>
     <row r="203">
@@ -2053,7 +2053,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>0.26398</v>
+        <v>0.25294</v>
       </c>
     </row>
     <row r="204">
@@ -2061,7 +2061,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>0.26398</v>
+        <v>0.25294</v>
       </c>
     </row>
     <row r="205">
@@ -2069,7 +2069,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>0.26671</v>
+        <v>0.25556</v>
       </c>
     </row>
     <row r="206">
@@ -2077,7 +2077,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>0.25034</v>
+        <v>0.23987</v>
       </c>
     </row>
     <row r="207">
@@ -2085,7 +2085,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>0.25682</v>
+        <v>0.24608</v>
       </c>
     </row>
     <row r="208">
@@ -2093,7 +2093,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>0.25034</v>
+        <v>0.23987</v>
       </c>
     </row>
     <row r="209">
@@ -2101,7 +2101,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>0.24932</v>
+        <v>0.23889</v>
       </c>
     </row>
     <row r="210">
@@ -2109,7 +2109,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>0.24932</v>
+        <v>0.23889</v>
       </c>
     </row>
     <row r="211">
@@ -2117,7 +2117,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>0.24829</v>
+        <v>0.23791</v>
       </c>
     </row>
     <row r="212">
@@ -2125,7 +2125,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>0.24932</v>
+        <v>0.23889</v>
       </c>
     </row>
     <row r="213">
@@ -2133,7 +2133,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>0.23636</v>
+        <v>0.22647</v>
       </c>
     </row>
     <row r="214">
@@ -2141,7 +2141,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>0.24829</v>
+        <v>0.23791</v>
       </c>
     </row>
     <row r="215">
@@ -2149,7 +2149,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>0.24829</v>
+        <v>0.23791</v>
       </c>
     </row>
     <row r="216">
@@ -2157,7 +2157,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>0.24693</v>
+        <v>0.2366</v>
       </c>
     </row>
     <row r="217">
@@ -2165,7 +2165,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>0.25034</v>
+        <v>0.23987</v>
       </c>
     </row>
     <row r="218">
@@ -2173,7 +2173,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>0.25034</v>
+        <v>0.23987</v>
       </c>
     </row>
     <row r="219">
@@ -2181,7 +2181,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>0.24693</v>
+        <v>0.2366</v>
       </c>
     </row>
     <row r="220">
@@ -2189,7 +2189,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>0.23295</v>
+        <v>0.2232</v>
       </c>
     </row>
     <row r="221">
@@ -2197,7 +2197,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>0.23295</v>
+        <v>0.2232</v>
       </c>
     </row>
     <row r="222">
@@ -2205,7 +2205,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>0.23022</v>
+        <v>0.22059</v>
       </c>
     </row>
     <row r="223">
@@ -2213,7 +2213,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>0.22613</v>
+        <v>0.21667</v>
       </c>
     </row>
     <row r="224">
@@ -2221,7 +2221,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>0.22954</v>
+        <v>0.21993</v>
       </c>
     </row>
     <row r="225">
@@ -2229,7 +2229,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>0.22613</v>
+        <v>0.21667</v>
       </c>
     </row>
     <row r="226">
@@ -2237,7 +2237,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>0.22442</v>
+        <v>0.21503</v>
       </c>
     </row>
     <row r="227">
@@ -2245,7 +2245,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>0.22442</v>
+        <v>0.21503</v>
       </c>
     </row>
     <row r="228">
@@ -2253,7 +2253,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>0.20873</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="229">
@@ -2261,7 +2261,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>0.22237</v>
+        <v>0.21307</v>
       </c>
     </row>
     <row r="230">
@@ -2269,7 +2269,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>0.20532</v>
+        <v>0.19673</v>
       </c>
     </row>
     <row r="231">
@@ -2277,7 +2277,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>0.18111</v>
+        <v>0.17353</v>
       </c>
     </row>
     <row r="232">
@@ -2285,7 +2285,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>0.14495</v>
+        <v>0.13889</v>
       </c>
     </row>
     <row r="233">
@@ -2293,7 +2293,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>0.16132</v>
+        <v>0.15458</v>
       </c>
     </row>
     <row r="234">
@@ -2301,7 +2301,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>0.14768</v>
+        <v>0.1415</v>
       </c>
     </row>
     <row r="235">
@@ -2309,7 +2309,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>0.16371</v>
+        <v>0.15686</v>
       </c>
     </row>
     <row r="236">
@@ -2317,7 +2317,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>0.16712</v>
+        <v>0.16013</v>
       </c>
     </row>
     <row r="237">
@@ -2325,7 +2325,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>0.15859</v>
+        <v>0.15196</v>
       </c>
     </row>
     <row r="238">
@@ -2333,7 +2333,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>0.15689</v>
+        <v>0.15033</v>
       </c>
     </row>
     <row r="239">
@@ -2341,7 +2341,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>0.15382</v>
+        <v>0.14739</v>
       </c>
     </row>
     <row r="240">
@@ -2349,7 +2349,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>0.14666</v>
+        <v>0.14052</v>
       </c>
     </row>
     <row r="241">
@@ -2357,7 +2357,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>0.17769</v>
+        <v>0.17026</v>
       </c>
     </row>
     <row r="242">
@@ -2365,7 +2365,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>0.17258</v>
+        <v>0.16536</v>
       </c>
     </row>
     <row r="243">
@@ -2373,7 +2373,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>0.17599</v>
+        <v>0.16863</v>
       </c>
     </row>
     <row r="244">
@@ -2381,7 +2381,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>0.18278</v>
+        <v>0.17513</v>
       </c>
     </row>
     <row r="245">
@@ -2389,7 +2389,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>0.1985</v>
+        <v>0.1902</v>
       </c>
     </row>
     <row r="246">
@@ -2397,7 +2397,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>0.1985</v>
+        <v>0.1902</v>
       </c>
     </row>
     <row r="247">
@@ -2405,7 +2405,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>0.15859</v>
+        <v>0.15196</v>
       </c>
     </row>
     <row r="248">
@@ -2413,7 +2413,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>0.15859</v>
+        <v>0.15196</v>
       </c>
     </row>
     <row r="249">
@@ -2421,7 +2421,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>0.14666</v>
+        <v>0.14052</v>
       </c>
     </row>
     <row r="250">
@@ -2429,7 +2429,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>0.15859</v>
+        <v>0.15196</v>
       </c>
     </row>
     <row r="251">
@@ -2437,7 +2437,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>0.15382</v>
+        <v>0.14739</v>
       </c>
     </row>
     <row r="252">
@@ -2445,7 +2445,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>0.15382</v>
+        <v>0.14739</v>
       </c>
     </row>
     <row r="253">
@@ -2453,7 +2453,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>0.16576</v>
+        <v>0.15882</v>
       </c>
     </row>
     <row r="254">
@@ -2461,7 +2461,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>0.16371</v>
+        <v>0.15686</v>
       </c>
     </row>
     <row r="255">
@@ -2469,7 +2469,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>0.16235</v>
+        <v>0.15556</v>
       </c>
     </row>
     <row r="256">
@@ -2477,7 +2477,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>0.1603</v>
+        <v>0.15359</v>
       </c>
     </row>
     <row r="257">
@@ -2485,7 +2485,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>0.12312</v>
+        <v>0.11797</v>
       </c>
     </row>
     <row r="258">
@@ -2493,7 +2493,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>0.13438</v>
+        <v>0.12876</v>
       </c>
     </row>
     <row r="259">
@@ -2501,7 +2501,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>0.09925</v>
+        <v>0.0951</v>
       </c>
     </row>
     <row r="260">
@@ -2509,7 +2509,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>0.06651</v>
+        <v>0.06372999999999999</v>
       </c>
     </row>
     <row r="261">
@@ -2517,7 +2517,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>0.03956</v>
+        <v>0.03791</v>
       </c>
     </row>
     <row r="262">
@@ -2525,7 +2525,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>0.03888</v>
+        <v>0.03725</v>
       </c>
     </row>
     <row r="263">
@@ -2533,7 +2533,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>0.03104</v>
+        <v>0.02974</v>
       </c>
     </row>
     <row r="264">
@@ -2541,7 +2541,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>0.02933</v>
+        <v>0.0281</v>
       </c>
     </row>
     <row r="265">
@@ -2549,7 +2549,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>0.02933</v>
+        <v>0.0281</v>
       </c>
     </row>
     <row r="266">
@@ -2557,7 +2557,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>0.02763</v>
+        <v>0.02647</v>
       </c>
     </row>
     <row r="267">
@@ -2581,7 +2581,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>0.02422</v>
+        <v>0.0232</v>
       </c>
     </row>
     <row r="270">
@@ -2589,7 +2589,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>0.02933</v>
+        <v>0.0281</v>
       </c>
     </row>
     <row r="271">
@@ -2597,7 +2597,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>0.02933</v>
+        <v>0.0281</v>
       </c>
     </row>
     <row r="272">
@@ -2605,7 +2605,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>0.02592</v>
+        <v>0.02484</v>
       </c>
     </row>
     <row r="273">
@@ -2613,7 +2613,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>0.01739</v>
+        <v>0.01667</v>
       </c>
     </row>
     <row r="274">
@@ -2621,7 +2621,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>0.02251</v>
+        <v>0.02157</v>
       </c>
     </row>
     <row r="275">
@@ -2629,7 +2629,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>0.04332</v>
+        <v>0.0415</v>
       </c>
     </row>
     <row r="276">
@@ -2637,7 +2637,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>0.06889000000000001</v>
+        <v>0.06601</v>
       </c>
     </row>
     <row r="277">
@@ -2645,7 +2645,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>0.09311</v>
+        <v>0.08921999999999999</v>
       </c>
     </row>
     <row r="278">
@@ -2653,7 +2653,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>0.07333000000000001</v>
+        <v>0.07026</v>
       </c>
     </row>
     <row r="279">
@@ -2661,7 +2661,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>0.08629000000000001</v>
+        <v>0.08268</v>
       </c>
     </row>
     <row r="280">
@@ -2669,7 +2669,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>0.08629000000000001</v>
+        <v>0.08268</v>
       </c>
     </row>
     <row r="281">
@@ -2677,7 +2677,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>0.08629000000000001</v>
+        <v>0.08268</v>
       </c>
     </row>
     <row r="282">
@@ -2685,7 +2685,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>0.09311</v>
+        <v>0.08921999999999999</v>
       </c>
     </row>
     <row r="283">
@@ -2693,7 +2693,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>0.10709</v>
+        <v>0.10261</v>
       </c>
     </row>
     <row r="284">
@@ -2701,7 +2701,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>0.12517</v>
+        <v>0.11993</v>
       </c>
     </row>
     <row r="285">
@@ -2709,7 +2709,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>0.13779</v>
+        <v>0.13203</v>
       </c>
     </row>
     <row r="286">
@@ -2717,7 +2717,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>0.14154</v>
+        <v>0.13562</v>
       </c>
     </row>
     <row r="287">
@@ -2725,7 +2725,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>0.10607</v>
+        <v>0.10163</v>
       </c>
     </row>
     <row r="288">
@@ -2733,7 +2733,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>0.11187</v>
+        <v>0.10719</v>
       </c>
     </row>
     <row r="289">
@@ -2741,7 +2741,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>0.12415</v>
+        <v>0.11895</v>
       </c>
     </row>
     <row r="290">
@@ -2749,7 +2749,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>0.13267</v>
+        <v>0.12712</v>
       </c>
     </row>
     <row r="291">
@@ -2757,7 +2757,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>0.12415</v>
+        <v>0.11895</v>
       </c>
     </row>
     <row r="292">
@@ -2765,7 +2765,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>0.12074</v>
+        <v>0.11569</v>
       </c>
     </row>
     <row r="293">
@@ -2773,7 +2773,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>0.12312</v>
+        <v>0.11797</v>
       </c>
     </row>
     <row r="294">
@@ -2781,7 +2781,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>0.11733</v>
+        <v>0.11242</v>
       </c>
     </row>
     <row r="295">
@@ -2789,7 +2789,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>0.11664</v>
+        <v>0.11176</v>
       </c>
     </row>
     <row r="296">
@@ -2797,7 +2797,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>0.11664</v>
+        <v>0.11176</v>
       </c>
     </row>
     <row r="297">
@@ -2805,7 +2805,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>0.1279</v>
+        <v>0.12255</v>
       </c>
     </row>
     <row r="298">
@@ -2813,7 +2813,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>0.12244</v>
+        <v>0.11732</v>
       </c>
     </row>
     <row r="299">
@@ -2821,7 +2821,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>0.11971</v>
+        <v>0.11471</v>
       </c>
     </row>
     <row r="300">
@@ -2829,7 +2829,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>0.12926</v>
+        <v>0.12386</v>
       </c>
     </row>
     <row r="301">
@@ -2837,7 +2837,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>0.13643</v>
+        <v>0.13072</v>
       </c>
     </row>
     <row r="302">
@@ -2845,7 +2845,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>0.1279</v>
+        <v>0.12255</v>
       </c>
     </row>
     <row r="303">
@@ -2853,7 +2853,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>0.12926</v>
+        <v>0.12386</v>
       </c>
     </row>
     <row r="304">
@@ -2861,7 +2861,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>0.12074</v>
+        <v>0.11569</v>
       </c>
     </row>
     <row r="305">
@@ -2869,7 +2869,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>0.12074</v>
+        <v>0.11569</v>
       </c>
     </row>
     <row r="306">
@@ -2877,7 +2877,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>0.11664</v>
+        <v>0.11176</v>
       </c>
     </row>
     <row r="307">
@@ -2885,7 +2885,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>0.11664</v>
+        <v>0.11176</v>
       </c>
     </row>
     <row r="308">
@@ -2893,7 +2893,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>0.11187</v>
+        <v>0.10719</v>
       </c>
     </row>
     <row r="309">
@@ -2901,7 +2901,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>0.11562</v>
+        <v>0.11078</v>
       </c>
     </row>
     <row r="310">
@@ -2909,7 +2909,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>0.11392</v>
+        <v>0.10915</v>
       </c>
     </row>
     <row r="311">
@@ -2917,7 +2917,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>0.10948</v>
+        <v>0.1049</v>
       </c>
     </row>
     <row r="312">
@@ -2925,7 +2925,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>0.1105</v>
+        <v>0.10588</v>
       </c>
     </row>
     <row r="313">
@@ -2933,7 +2933,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>0.10948</v>
+        <v>0.1049</v>
       </c>
     </row>
     <row r="314">
@@ -2941,7 +2941,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>0.10948</v>
+        <v>0.1049</v>
       </c>
     </row>
     <row r="315">
@@ -2949,7 +2949,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>0.10778</v>
+        <v>0.10327</v>
       </c>
     </row>
     <row r="316">
@@ -2957,7 +2957,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>0.1105</v>
+        <v>0.10588</v>
       </c>
     </row>
     <row r="317">
@@ -2965,7 +2965,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>0.11562</v>
+        <v>0.11078</v>
       </c>
     </row>
     <row r="318">
@@ -2973,7 +2973,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>0.11562</v>
+        <v>0.11078</v>
       </c>
     </row>
     <row r="319">
@@ -2981,7 +2981,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>0.14905</v>
+        <v>0.14281</v>
       </c>
     </row>
     <row r="320">
@@ -2989,7 +2989,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>0.17258</v>
+        <v>0.16536</v>
       </c>
     </row>
     <row r="321">
@@ -2997,7 +2997,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>0.15382</v>
+        <v>0.14739</v>
       </c>
     </row>
     <row r="322">
@@ -3005,7 +3005,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>0.11733</v>
+        <v>0.11242</v>
       </c>
     </row>
     <row r="323">
@@ -3013,7 +3013,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>0.12926</v>
+        <v>0.12386</v>
       </c>
     </row>
     <row r="324">
@@ -3021,7 +3021,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>0.12074</v>
+        <v>0.11569</v>
       </c>
     </row>
     <row r="325">
@@ -3029,7 +3029,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>0.12244</v>
+        <v>0.11732</v>
       </c>
     </row>
     <row r="326">
@@ -3037,7 +3037,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>0.12653</v>
+        <v>0.12124</v>
       </c>
     </row>
     <row r="327">
@@ -3045,7 +3045,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>0.14495</v>
+        <v>0.13889</v>
       </c>
     </row>
     <row r="328">
@@ -3053,7 +3053,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>0.15859</v>
+        <v>0.15196</v>
       </c>
     </row>
     <row r="329">
@@ -3061,7 +3061,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>0.15859</v>
+        <v>0.15196</v>
       </c>
     </row>
     <row r="330">
@@ -3069,7 +3069,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>0.16371</v>
+        <v>0.15686</v>
       </c>
     </row>
     <row r="331">
@@ -3077,7 +3077,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>0.15859</v>
+        <v>0.15196</v>
       </c>
     </row>
     <row r="332">
@@ -3085,7 +3085,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>0.15007</v>
+        <v>0.14379</v>
       </c>
     </row>
     <row r="333">
@@ -3093,7 +3093,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>0.16576</v>
+        <v>0.15882</v>
       </c>
     </row>
     <row r="334">
@@ -3101,7 +3101,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>0.1603</v>
+        <v>0.15359</v>
       </c>
     </row>
     <row r="335">
@@ -3109,7 +3109,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>0.16473</v>
+        <v>0.15784</v>
       </c>
     </row>
     <row r="336">
@@ -3117,7 +3117,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>0.16371</v>
+        <v>0.15686</v>
       </c>
     </row>
     <row r="337">
@@ -3125,7 +3125,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>0.16644</v>
+        <v>0.15948</v>
       </c>
     </row>
     <row r="338">
@@ -3133,7 +3133,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>0.15007</v>
+        <v>0.14379</v>
       </c>
     </row>
     <row r="339">
@@ -3141,7 +3141,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>0.15109</v>
+        <v>0.14477</v>
       </c>
     </row>
     <row r="340">
@@ -3149,7 +3149,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>0.15007</v>
+        <v>0.14379</v>
       </c>
     </row>
     <row r="341">
@@ -3157,7 +3157,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>0.13438</v>
+        <v>0.12876</v>
       </c>
     </row>
     <row r="342">
@@ -3165,7 +3165,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>0.14154</v>
+        <v>0.13562</v>
       </c>
     </row>
     <row r="343">
@@ -3173,7 +3173,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>0.14154</v>
+        <v>0.13562</v>
       </c>
     </row>
     <row r="344">
@@ -3181,7 +3181,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>0.13779</v>
+        <v>0.13203</v>
       </c>
     </row>
     <row r="345">
@@ -3189,7 +3189,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>0.13779</v>
+        <v>0.13203</v>
       </c>
     </row>
     <row r="346">
@@ -3197,7 +3197,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>0.14052</v>
+        <v>0.13464</v>
       </c>
     </row>
     <row r="347">
@@ -3205,7 +3205,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>0.13779</v>
+        <v>0.13203</v>
       </c>
     </row>
     <row r="348">
@@ -3213,7 +3213,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>0.14836</v>
+        <v>0.14216</v>
       </c>
     </row>
     <row r="349">
@@ -3221,7 +3221,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>0.16576</v>
+        <v>0.15882</v>
       </c>
     </row>
     <row r="350">
@@ -3229,7 +3229,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>0.15689</v>
+        <v>0.15033</v>
       </c>
     </row>
     <row r="351">
@@ -3237,7 +3237,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>0.15689</v>
+        <v>0.15033</v>
       </c>
     </row>
     <row r="352">
@@ -3245,7 +3245,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>0.15177</v>
+        <v>0.14542</v>
       </c>
     </row>
     <row r="353">
@@ -3253,7 +3253,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>0.12074</v>
+        <v>0.11569</v>
       </c>
     </row>
     <row r="354">
@@ -3261,7 +3261,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>0.09993</v>
+        <v>0.09575</v>
       </c>
     </row>
     <row r="355">
@@ -3269,7 +3269,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>0.12926</v>
+        <v>0.12386</v>
       </c>
     </row>
     <row r="356">
@@ -3277,7 +3277,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>0.12074</v>
+        <v>0.11569</v>
       </c>
     </row>
     <row r="357">
@@ -3285,7 +3285,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>0.12926</v>
+        <v>0.12386</v>
       </c>
     </row>
     <row r="358">
@@ -3293,7 +3293,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>0.12244</v>
+        <v>0.11732</v>
       </c>
     </row>
     <row r="359">
@@ -3301,7 +3301,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>0.12926</v>
+        <v>0.12386</v>
       </c>
     </row>
     <row r="360">
@@ -3309,7 +3309,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>0.15382</v>
+        <v>0.14739</v>
       </c>
     </row>
     <row r="361">
@@ -3317,7 +3317,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>0.15689</v>
+        <v>0.15033</v>
       </c>
     </row>
     <row r="362">
@@ -3325,7 +3325,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>0.15518</v>
+        <v>0.14869</v>
       </c>
     </row>
     <row r="363">
@@ -3333,7 +3333,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>0.15518</v>
+        <v>0.14869</v>
       </c>
     </row>
     <row r="364">
@@ -3341,7 +3341,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>0.16917</v>
+        <v>0.16209</v>
       </c>
     </row>
     <row r="365">
@@ -3349,7 +3349,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>0.16576</v>
+        <v>0.15882</v>
       </c>
     </row>
     <row r="366">
@@ -3357,7 +3357,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>0.16576</v>
+        <v>0.15882</v>
       </c>
     </row>
     <row r="367">
@@ -3365,7 +3365,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>0.16235</v>
+        <v>0.15556</v>
       </c>
     </row>
     <row r="368">
@@ -3373,7 +3373,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>0.15859</v>
+        <v>0.15196</v>
       </c>
     </row>
     <row r="369">
@@ -3381,7 +3381,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>0.15382</v>
+        <v>0.14739</v>
       </c>
     </row>
     <row r="370">
@@ -3389,7 +3389,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>0.15177</v>
+        <v>0.14542</v>
       </c>
     </row>
     <row r="371">
@@ -3397,7 +3397,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>0.16712</v>
+        <v>0.16013</v>
       </c>
     </row>
     <row r="372">
@@ -3405,7 +3405,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>0.18963</v>
+        <v>0.1817</v>
       </c>
     </row>
     <row r="373">
@@ -3413,7 +3413,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>0.2002</v>
+        <v>0.19183</v>
       </c>
     </row>
     <row r="374">
@@ -3421,7 +3421,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>0.20703</v>
+        <v>0.19837</v>
       </c>
     </row>
     <row r="375">
@@ -3429,7 +3429,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>0.19168</v>
+        <v>0.18366</v>
       </c>
     </row>
     <row r="376">
@@ -3437,7 +3437,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>0.21214</v>
+        <v>0.20327</v>
       </c>
     </row>
     <row r="377">
@@ -3445,7 +3445,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>0.25273</v>
+        <v>0.24216</v>
       </c>
     </row>
     <row r="378">
@@ -3453,7 +3453,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>0.23806</v>
+        <v>0.2281</v>
       </c>
     </row>
     <row r="379">
@@ -3461,7 +3461,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>0.23295</v>
+        <v>0.2232</v>
       </c>
     </row>
     <row r="380">
@@ -3469,7 +3469,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>0.24318</v>
+        <v>0.23301</v>
       </c>
     </row>
     <row r="381">
@@ -3477,7 +3477,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>0.24693</v>
+        <v>0.2366</v>
       </c>
     </row>
     <row r="382">
@@ -3485,7 +3485,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>0.2309</v>
+        <v>0.22124</v>
       </c>
     </row>
     <row r="383">
@@ -3493,7 +3493,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>0.23295</v>
+        <v>0.2232</v>
       </c>
     </row>
     <row r="384">
@@ -3501,7 +3501,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>0.24147</v>
+        <v>0.23137</v>
       </c>
     </row>
     <row r="385">
@@ -3509,7 +3509,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>0.24147</v>
+        <v>0.23137</v>
       </c>
     </row>
     <row r="386">
@@ -3517,7 +3517,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>0.23465</v>
+        <v>0.22484</v>
       </c>
     </row>
     <row r="387">
@@ -3525,7 +3525,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>0.25375</v>
+        <v>0.24314</v>
       </c>
     </row>
     <row r="388">
@@ -3533,7 +3533,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>0.25887</v>
+        <v>0.24804</v>
       </c>
     </row>
     <row r="389">
@@ -3541,7 +3541,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>0.25682</v>
+        <v>0.24608</v>
       </c>
     </row>
     <row r="390">
@@ -3549,7 +3549,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>0.24761</v>
+        <v>0.23725</v>
       </c>
     </row>
     <row r="391">
@@ -3557,7 +3557,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>0.23636</v>
+        <v>0.22647</v>
       </c>
     </row>
     <row r="392">
@@ -3565,7 +3565,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>0.23465</v>
+        <v>0.22484</v>
       </c>
     </row>
     <row r="393">
@@ -3573,7 +3573,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>0.24488</v>
+        <v>0.23464</v>
       </c>
     </row>
     <row r="394">
@@ -3581,7 +3581,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>0.24488</v>
+        <v>0.23464</v>
       </c>
     </row>
     <row r="395">
@@ -3589,7 +3589,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>0.25375</v>
+        <v>0.24314</v>
       </c>
     </row>
     <row r="396">
@@ -3597,7 +3597,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>0.25375</v>
+        <v>0.24314</v>
       </c>
     </row>
     <row r="397">
@@ -3605,7 +3605,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>0.24488</v>
+        <v>0.23464</v>
       </c>
     </row>
     <row r="398">
@@ -3613,7 +3613,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>0.24488</v>
+        <v>0.23464</v>
       </c>
     </row>
     <row r="399">
@@ -3621,7 +3621,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>0.22613</v>
+        <v>0.21667</v>
       </c>
     </row>
     <row r="400">
@@ -3629,7 +3629,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>0.22783</v>
+        <v>0.2183</v>
       </c>
     </row>
     <row r="401">
@@ -3637,7 +3637,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>0.23295</v>
+        <v>0.2232</v>
       </c>
     </row>
     <row r="402">
@@ -3645,7 +3645,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>0.23295</v>
+        <v>0.2232</v>
       </c>
     </row>
     <row r="403">
@@ -3653,7 +3653,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>0.22613</v>
+        <v>0.21667</v>
       </c>
     </row>
     <row r="404">
@@ -3661,7 +3661,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>0.22613</v>
+        <v>0.21667</v>
       </c>
     </row>
     <row r="405">
@@ -3669,7 +3669,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>0.22681</v>
+        <v>0.21732</v>
       </c>
     </row>
     <row r="406">
@@ -3677,7 +3677,7 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>0.22613</v>
+        <v>0.21667</v>
       </c>
     </row>
     <row r="407">
@@ -3685,7 +3685,7 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>0.22613</v>
+        <v>0.21667</v>
       </c>
     </row>
     <row r="408">
@@ -3693,7 +3693,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>0.21214</v>
+        <v>0.20327</v>
       </c>
     </row>
     <row r="409">
@@ -3701,7 +3701,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>0.21555</v>
+        <v>0.20654</v>
       </c>
     </row>
     <row r="410">
@@ -3709,7 +3709,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>0.21044</v>
+        <v>0.20163</v>
       </c>
     </row>
     <row r="411">
@@ -3717,7 +3717,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>0.21658</v>
+        <v>0.20752</v>
       </c>
     </row>
     <row r="412">
@@ -3725,7 +3725,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>0.21555</v>
+        <v>0.20654</v>
       </c>
     </row>
     <row r="413">
@@ -3733,7 +3733,7 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>0.22101</v>
+        <v>0.21176</v>
       </c>
     </row>
     <row r="414">
@@ -3741,7 +3741,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>0.22101</v>
+        <v>0.21176</v>
       </c>
     </row>
     <row r="415">
@@ -3749,7 +3749,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>0.21896</v>
+        <v>0.2098</v>
       </c>
     </row>
     <row r="416">
@@ -3757,7 +3757,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>0.21555</v>
+        <v>0.20654</v>
       </c>
     </row>
     <row r="417">
@@ -3765,7 +3765,7 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>0.21487</v>
+        <v>0.20588</v>
       </c>
     </row>
     <row r="418">
@@ -3773,7 +3773,7 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>0.21214</v>
+        <v>0.20327</v>
       </c>
     </row>
     <row r="419">
@@ -3781,7 +3781,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>0.20703</v>
+        <v>0.19837</v>
       </c>
     </row>
     <row r="420">
@@ -3789,7 +3789,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>0.2002</v>
+        <v>0.19183</v>
       </c>
     </row>
     <row r="421">
@@ -3797,7 +3797,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>0.19679</v>
+        <v>0.18856</v>
       </c>
     </row>
     <row r="422">
@@ -3805,7 +3805,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>0.19679</v>
+        <v>0.18856</v>
       </c>
     </row>
     <row r="423">
@@ -3813,7 +3813,7 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>0.20634</v>
+        <v>0.19771</v>
       </c>
     </row>
     <row r="424">
@@ -3821,7 +3821,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>0.20771</v>
+        <v>0.19902</v>
       </c>
     </row>
     <row r="425">
@@ -3829,7 +3829,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>0.20975</v>
+        <v>0.20098</v>
       </c>
     </row>
     <row r="426">
@@ -3837,7 +3837,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>0.20975</v>
+        <v>0.20098</v>
       </c>
     </row>
     <row r="427">
@@ -3845,7 +3845,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>0.21044</v>
+        <v>0.20163</v>
       </c>
     </row>
     <row r="428">
@@ -3853,7 +3853,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>0.21487</v>
+        <v>0.20588</v>
       </c>
     </row>
     <row r="429">
@@ -3861,7 +3861,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>0.21999</v>
+        <v>0.21078</v>
       </c>
     </row>
     <row r="430">
@@ -3869,7 +3869,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>0.21896</v>
+        <v>0.2098</v>
       </c>
     </row>
     <row r="431">
@@ -3877,7 +3877,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>0.22237</v>
+        <v>0.21307</v>
       </c>
     </row>
     <row r="432">
@@ -3885,7 +3885,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>0.21999</v>
+        <v>0.21078</v>
       </c>
     </row>
     <row r="433">
@@ -3893,7 +3893,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>0.21214</v>
+        <v>0.20327</v>
       </c>
     </row>
     <row r="434">
@@ -3901,7 +3901,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>0.21146</v>
+        <v>0.20261</v>
       </c>
     </row>
     <row r="435">
@@ -3909,7 +3909,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>0.20634</v>
+        <v>0.19771</v>
       </c>
     </row>
     <row r="436">
@@ -3917,7 +3917,7 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>0.21146</v>
+        <v>0.20261</v>
       </c>
     </row>
     <row r="437">
@@ -3925,7 +3925,7 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>0.2176</v>
+        <v>0.2085</v>
       </c>
     </row>
     <row r="438">
@@ -3933,7 +3933,7 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>0.22613</v>
+        <v>0.21667</v>
       </c>
     </row>
     <row r="439">
@@ -3941,7 +3941,7 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>0.22613</v>
+        <v>0.21667</v>
       </c>
     </row>
     <row r="440">
@@ -3949,7 +3949,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>0.22271</v>
+        <v>0.2134</v>
       </c>
     </row>
     <row r="441">
@@ -3957,7 +3957,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>0.21896</v>
+        <v>0.2098</v>
       </c>
     </row>
     <row r="442">
@@ -3965,7 +3965,7 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>0.2176</v>
+        <v>0.2085</v>
       </c>
     </row>
     <row r="443">
@@ -3973,7 +3973,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>0.21385</v>
+        <v>0.2049</v>
       </c>
     </row>
     <row r="444">
@@ -3981,7 +3981,7 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>0.20941</v>
+        <v>0.20065</v>
       </c>
     </row>
     <row r="445">
@@ -3989,7 +3989,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>0.20157</v>
+        <v>0.19314</v>
       </c>
     </row>
     <row r="446">
@@ -3997,7 +3997,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>0.2101</v>
+        <v>0.20131</v>
       </c>
     </row>
     <row r="447">
@@ -4005,7 +4005,7 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>0.21999</v>
+        <v>0.21078</v>
       </c>
     </row>
     <row r="448">
@@ -4013,7 +4013,7 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>0.21999</v>
+        <v>0.21078</v>
       </c>
     </row>
     <row r="449">
@@ -4021,7 +4021,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>0.21555</v>
+        <v>0.20654</v>
       </c>
     </row>
     <row r="450">
@@ -4029,7 +4029,7 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>0.21282</v>
+        <v>0.20392</v>
       </c>
     </row>
     <row r="451">
@@ -4037,7 +4037,7 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>0.20839</v>
+        <v>0.19967</v>
       </c>
     </row>
     <row r="452">
@@ -4045,7 +4045,7 @@
         <v>450</v>
       </c>
       <c r="B452" t="n">
-        <v>0.21282</v>
+        <v>0.20392</v>
       </c>
     </row>
     <row r="453">
@@ -4053,7 +4053,7 @@
         <v>451</v>
       </c>
       <c r="B453" t="n">
-        <v>0.2101</v>
+        <v>0.20131</v>
       </c>
     </row>
     <row r="454">
@@ -4061,7 +4061,7 @@
         <v>452</v>
       </c>
       <c r="B454" t="n">
-        <v>0.20668</v>
+        <v>0.19804</v>
       </c>
     </row>
     <row r="455">
@@ -4069,7 +4069,7 @@
         <v>453</v>
       </c>
       <c r="B455" t="n">
-        <v>0.2101</v>
+        <v>0.20131</v>
       </c>
     </row>
     <row r="456">
@@ -4077,7 +4077,7 @@
         <v>454</v>
       </c>
       <c r="B456" t="n">
-        <v>0.20498</v>
+        <v>0.19641</v>
       </c>
     </row>
     <row r="457">
@@ -4085,7 +4085,7 @@
         <v>455</v>
       </c>
       <c r="B457" t="n">
-        <v>0.20293</v>
+        <v>0.19444</v>
       </c>
     </row>
     <row r="458">
@@ -4093,7 +4093,7 @@
         <v>456</v>
       </c>
       <c r="B458" t="n">
-        <v>0.20566</v>
+        <v>0.19706</v>
       </c>
     </row>
     <row r="459">
@@ -4101,7 +4101,7 @@
         <v>457</v>
       </c>
       <c r="B459" t="n">
-        <v>0.20566</v>
+        <v>0.19706</v>
       </c>
     </row>
     <row r="460">
@@ -4109,7 +4109,7 @@
         <v>458</v>
       </c>
       <c r="B460" t="n">
-        <v>0.21555</v>
+        <v>0.20654</v>
       </c>
     </row>
     <row r="461">
@@ -4117,7 +4117,7 @@
         <v>459</v>
       </c>
       <c r="B461" t="n">
-        <v>0.25102</v>
+        <v>0.24052</v>
       </c>
     </row>
     <row r="462">
@@ -4125,7 +4125,7 @@
         <v>460</v>
       </c>
       <c r="B462" t="n">
-        <v>0.25375</v>
+        <v>0.24314</v>
       </c>
     </row>
     <row r="463">
@@ -4133,7 +4133,7 @@
         <v>461</v>
       </c>
       <c r="B463" t="n">
-        <v>0.28411</v>
+        <v>0.27222</v>
       </c>
     </row>
     <row r="464">
@@ -4141,7 +4141,7 @@
         <v>462</v>
       </c>
       <c r="B464" t="n">
-        <v>0.28308</v>
+        <v>0.27124</v>
       </c>
     </row>
     <row r="465">
@@ -4149,7 +4149,7 @@
         <v>463</v>
       </c>
       <c r="B465" t="n">
-        <v>0.28138</v>
+        <v>0.26961</v>
       </c>
     </row>
     <row r="466">
@@ -4157,7 +4157,7 @@
         <v>464</v>
       </c>
       <c r="B466" t="n">
-        <v>0.30457</v>
+        <v>0.29183</v>
       </c>
     </row>
     <row r="467">
@@ -4165,7 +4165,7 @@
         <v>465</v>
       </c>
       <c r="B467" t="n">
-        <v>0.32913</v>
+        <v>0.31536</v>
       </c>
     </row>
     <row r="468">
@@ -4173,7 +4173,7 @@
         <v>466</v>
       </c>
       <c r="B468" t="n">
-        <v>0.32572</v>
+        <v>0.31209</v>
       </c>
     </row>
     <row r="469">
@@ -4181,7 +4181,7 @@
         <v>467</v>
       </c>
       <c r="B469" t="n">
-        <v>0.31344</v>
+        <v>0.30033</v>
       </c>
     </row>
     <row r="470">
@@ -4189,7 +4189,7 @@
         <v>468</v>
       </c>
       <c r="B470" t="n">
-        <v>0.30457</v>
+        <v>0.29183</v>
       </c>
     </row>
     <row r="471">
@@ -4197,7 +4197,7 @@
         <v>469</v>
       </c>
       <c r="B471" t="n">
-        <v>0.30628</v>
+        <v>0.29346</v>
       </c>
     </row>
     <row r="472">
@@ -4205,7 +4205,7 @@
         <v>470</v>
       </c>
       <c r="B472" t="n">
-        <v>0.31344</v>
+        <v>0.30033</v>
       </c>
     </row>
     <row r="473">
@@ -4213,7 +4213,7 @@
         <v>471</v>
       </c>
       <c r="B473" t="n">
-        <v>0.31855</v>
+        <v>0.30523</v>
       </c>
     </row>
     <row r="474">
@@ -4221,7 +4221,7 @@
         <v>472</v>
       </c>
       <c r="B474" t="n">
-        <v>0.30628</v>
+        <v>0.29346</v>
       </c>
     </row>
     <row r="475">
@@ -4229,7 +4229,7 @@
         <v>473</v>
       </c>
       <c r="B475" t="n">
-        <v>0.31241</v>
+        <v>0.29935</v>
       </c>
     </row>
     <row r="476">
@@ -4237,7 +4237,7 @@
         <v>474</v>
       </c>
       <c r="B476" t="n">
-        <v>0.31514</v>
+        <v>0.30196</v>
       </c>
     </row>
     <row r="477">
@@ -4245,7 +4245,7 @@
         <v>475</v>
       </c>
       <c r="B477" t="n">
-        <v>0.31241</v>
+        <v>0.29935</v>
       </c>
     </row>
     <row r="478">
@@ -4253,7 +4253,7 @@
         <v>476</v>
       </c>
       <c r="B478" t="n">
-        <v>0.26535</v>
+        <v>0.25425</v>
       </c>
     </row>
     <row r="479">
@@ -4261,7 +4261,7 @@
         <v>477</v>
       </c>
       <c r="B479" t="n">
-        <v>0.26808</v>
+        <v>0.25686</v>
       </c>
     </row>
     <row r="480">
@@ -4269,7 +4269,7 @@
         <v>478</v>
       </c>
       <c r="B480" t="n">
-        <v>0.28683</v>
+        <v>0.27484</v>
       </c>
     </row>
     <row r="481">
@@ -4277,7 +4277,7 @@
         <v>479</v>
       </c>
       <c r="B481" t="n">
-        <v>0.28513</v>
+        <v>0.2732</v>
       </c>
     </row>
     <row r="482">
@@ -4285,7 +4285,7 @@
         <v>480</v>
       </c>
       <c r="B482" t="n">
-        <v>0.27967</v>
+        <v>0.26797</v>
       </c>
     </row>
     <row r="483">
@@ -4293,7 +4293,7 @@
         <v>481</v>
       </c>
       <c r="B483" t="n">
-        <v>0.25102</v>
+        <v>0.24052</v>
       </c>
     </row>
     <row r="484">
@@ -4301,7 +4301,7 @@
         <v>482</v>
       </c>
       <c r="B484" t="n">
-        <v>0.22101</v>
+        <v>0.21176</v>
       </c>
     </row>
     <row r="485">
@@ -4309,7 +4309,7 @@
         <v>483</v>
       </c>
       <c r="B485" t="n">
-        <v>0.18008</v>
+        <v>0.17255</v>
       </c>
     </row>
     <row r="486">
@@ -4317,7 +4317,7 @@
         <v>484</v>
       </c>
       <c r="B486" t="n">
-        <v>0.20668</v>
+        <v>0.19804</v>
       </c>
     </row>
     <row r="487">
@@ -4325,7 +4325,7 @@
         <v>485</v>
       </c>
       <c r="B487" t="n">
-        <v>0.18179</v>
+        <v>0.17418</v>
       </c>
     </row>
     <row r="488">
@@ -4333,7 +4333,7 @@
         <v>486</v>
       </c>
       <c r="B488" t="n">
-        <v>0.21112</v>
+        <v>0.20229</v>
       </c>
     </row>
     <row r="489">
@@ -4341,7 +4341,7 @@
         <v>487</v>
       </c>
       <c r="B489" t="n">
-        <v>0.21214</v>
+        <v>0.20327</v>
       </c>
     </row>
     <row r="490">
@@ -4349,7 +4349,7 @@
         <v>488</v>
       </c>
       <c r="B490" t="n">
-        <v>0.22988</v>
+        <v>0.22026</v>
       </c>
     </row>
     <row r="491">
@@ -4357,7 +4357,7 @@
         <v>489</v>
       </c>
       <c r="B491" t="n">
-        <v>0.22988</v>
+        <v>0.22026</v>
       </c>
     </row>
     <row r="492">
@@ -4365,7 +4365,7 @@
         <v>490</v>
       </c>
       <c r="B492" t="n">
-        <v>0.20566</v>
+        <v>0.19706</v>
       </c>
     </row>
     <row r="493">
@@ -4373,7 +4373,7 @@
         <v>491</v>
       </c>
       <c r="B493" t="n">
-        <v>0.21112</v>
+        <v>0.20229</v>
       </c>
     </row>
     <row r="494">
@@ -4381,7 +4381,7 @@
         <v>492</v>
       </c>
       <c r="B494" t="n">
-        <v>0.22885</v>
+        <v>0.21928</v>
       </c>
     </row>
     <row r="495">
@@ -4389,7 +4389,7 @@
         <v>493</v>
       </c>
       <c r="B495" t="n">
-        <v>0.22442</v>
+        <v>0.21503</v>
       </c>
     </row>
     <row r="496">
@@ -4397,7 +4397,7 @@
         <v>494</v>
       </c>
       <c r="B496" t="n">
-        <v>0.22817</v>
+        <v>0.21863</v>
       </c>
     </row>
     <row r="497">
@@ -4405,7 +4405,7 @@
         <v>495</v>
       </c>
       <c r="B497" t="n">
-        <v>0.23772</v>
+        <v>0.22778</v>
       </c>
     </row>
     <row r="498">
@@ -4413,7 +4413,7 @@
         <v>496</v>
       </c>
       <c r="B498" t="n">
-        <v>0.23772</v>
+        <v>0.22778</v>
       </c>
     </row>
     <row r="499">
@@ -4421,7 +4421,7 @@
         <v>497</v>
       </c>
       <c r="B499" t="n">
-        <v>0.23977</v>
+        <v>0.22974</v>
       </c>
     </row>
     <row r="500">
@@ -4429,7 +4429,7 @@
         <v>498</v>
       </c>
       <c r="B500" t="n">
-        <v>0.23874</v>
+        <v>0.22876</v>
       </c>
     </row>
     <row r="501">
@@ -4437,7 +4437,7 @@
         <v>499</v>
       </c>
       <c r="B501" t="n">
-        <v>0.22885</v>
+        <v>0.21928</v>
       </c>
     </row>
     <row r="502">
@@ -4445,7 +4445,7 @@
         <v>500</v>
       </c>
       <c r="B502" t="n">
-        <v>0.23874</v>
+        <v>0.22876</v>
       </c>
     </row>
     <row r="503">
@@ -4453,7 +4453,7 @@
         <v>501</v>
       </c>
       <c r="B503" t="n">
-        <v>0.23772</v>
+        <v>0.22778</v>
       </c>
     </row>
     <row r="504">
@@ -4461,7 +4461,7 @@
         <v>502</v>
       </c>
       <c r="B504" t="n">
-        <v>0.23772</v>
+        <v>0.22778</v>
       </c>
     </row>
     <row r="505">
@@ -4469,7 +4469,7 @@
         <v>503</v>
       </c>
       <c r="B505" t="n">
-        <v>0.22817</v>
+        <v>0.21863</v>
       </c>
     </row>
     <row r="506">
@@ -4477,7 +4477,7 @@
         <v>504</v>
       </c>
       <c r="B506" t="n">
-        <v>0.23499</v>
+        <v>0.22516</v>
       </c>
     </row>
     <row r="507">
@@ -4485,7 +4485,7 @@
         <v>505</v>
       </c>
       <c r="B507" t="n">
-        <v>0.23363</v>
+        <v>0.22386</v>
       </c>
     </row>
     <row r="508">
@@ -4493,7 +4493,7 @@
         <v>506</v>
       </c>
       <c r="B508" t="n">
-        <v>0.23363</v>
+        <v>0.22386</v>
       </c>
     </row>
     <row r="509">
@@ -4501,7 +4501,7 @@
         <v>507</v>
       </c>
       <c r="B509" t="n">
-        <v>0.27524</v>
+        <v>0.26373</v>
       </c>
     </row>
     <row r="510">
@@ -4509,7 +4509,7 @@
         <v>508</v>
       </c>
       <c r="B510" t="n">
-        <v>0.28035</v>
+        <v>0.26863</v>
       </c>
     </row>
     <row r="511">
@@ -4517,7 +4517,7 @@
         <v>509</v>
       </c>
       <c r="B511" t="n">
-        <v>0.26535</v>
+        <v>0.25425</v>
       </c>
     </row>
     <row r="512">
@@ -4525,7 +4525,7 @@
         <v>510</v>
       </c>
       <c r="B512" t="n">
-        <v>0.2575</v>
+        <v>0.24673</v>
       </c>
     </row>
     <row r="513">
@@ -4533,7 +4533,7 @@
         <v>511</v>
       </c>
       <c r="B513" t="n">
-        <v>0.28854</v>
+        <v>0.27647</v>
       </c>
     </row>
     <row r="514">
@@ -4541,7 +4541,7 @@
         <v>512</v>
       </c>
       <c r="B514" t="n">
-        <v>0.32401</v>
+        <v>0.31046</v>
       </c>
     </row>
     <row r="515">
@@ -4549,7 +4549,7 @@
         <v>513</v>
       </c>
       <c r="B515" t="n">
-        <v>0.31958</v>
+        <v>0.30621</v>
       </c>
     </row>
     <row r="516">
@@ -4557,7 +4557,7 @@
         <v>514</v>
       </c>
       <c r="B516" t="n">
-        <v>0.31071</v>
+        <v>0.29771</v>
       </c>
     </row>
     <row r="517">
@@ -4565,7 +4565,7 @@
         <v>515</v>
       </c>
       <c r="B517" t="n">
-        <v>0.30252</v>
+        <v>0.28987</v>
       </c>
     </row>
     <row r="518">
@@ -4573,7 +4573,7 @@
         <v>516</v>
       </c>
       <c r="B518" t="n">
-        <v>0.29366</v>
+        <v>0.28137</v>
       </c>
     </row>
     <row r="519">
@@ -4581,7 +4581,7 @@
         <v>517</v>
       </c>
       <c r="B519" t="n">
-        <v>0.27149</v>
+        <v>0.26013</v>
       </c>
     </row>
     <row r="520">
@@ -4589,7 +4589,7 @@
         <v>518</v>
       </c>
       <c r="B520" t="n">
-        <v>0.27251</v>
+        <v>0.26111</v>
       </c>
     </row>
     <row r="521">
@@ -4597,7 +4597,7 @@
         <v>519</v>
       </c>
       <c r="B521" t="n">
-        <v>0.2616</v>
+        <v>0.25065</v>
       </c>
     </row>
     <row r="522">
@@ -4605,7 +4605,7 @@
         <v>520</v>
       </c>
       <c r="B522" t="n">
-        <v>0.28035</v>
+        <v>0.26863</v>
       </c>
     </row>
     <row r="523">
@@ -4613,7 +4613,7 @@
         <v>521</v>
       </c>
       <c r="B523" t="n">
-        <v>0.28035</v>
+        <v>0.26863</v>
       </c>
     </row>
     <row r="524">
@@ -4621,7 +4621,7 @@
         <v>522</v>
       </c>
       <c r="B524" t="n">
-        <v>0.2691</v>
+        <v>0.25784</v>
       </c>
     </row>
     <row r="525">
@@ -4629,7 +4629,7 @@
         <v>523</v>
       </c>
       <c r="B525" t="n">
-        <v>0.27967</v>
+        <v>0.26797</v>
       </c>
     </row>
     <row r="526">
@@ -4637,7 +4637,7 @@
         <v>524</v>
       </c>
       <c r="B526" t="n">
-        <v>0.27967</v>
+        <v>0.26797</v>
       </c>
     </row>
     <row r="527">
@@ -4645,7 +4645,7 @@
         <v>525</v>
       </c>
       <c r="B527" t="n">
-        <v>0.27763</v>
+        <v>0.26601</v>
       </c>
     </row>
     <row r="528">
@@ -4653,7 +4653,7 @@
         <v>526</v>
       </c>
       <c r="B528" t="n">
-        <v>0.27763</v>
+        <v>0.26601</v>
       </c>
     </row>
     <row r="529">
@@ -4661,7 +4661,7 @@
         <v>527</v>
       </c>
       <c r="B529" t="n">
-        <v>0.26705</v>
+        <v>0.25588</v>
       </c>
     </row>
     <row r="530">
@@ -4669,7 +4669,7 @@
         <v>528</v>
       </c>
       <c r="B530" t="n">
-        <v>0.27626</v>
+        <v>0.26471</v>
       </c>
     </row>
     <row r="531">
@@ -4677,7 +4677,7 @@
         <v>529</v>
       </c>
       <c r="B531" t="n">
-        <v>0.27967</v>
+        <v>0.26797</v>
       </c>
     </row>
     <row r="532">
@@ -4685,7 +4685,7 @@
         <v>530</v>
       </c>
       <c r="B532" t="n">
-        <v>0.27967</v>
+        <v>0.26797</v>
       </c>
     </row>
     <row r="533">
@@ -4693,7 +4693,7 @@
         <v>531</v>
       </c>
       <c r="B533" t="n">
-        <v>0.2691</v>
+        <v>0.25784</v>
       </c>
     </row>
     <row r="534">
@@ -4701,7 +4701,7 @@
         <v>532</v>
       </c>
       <c r="B534" t="n">
-        <v>0.27626</v>
+        <v>0.26471</v>
       </c>
     </row>
     <row r="535">
@@ -4709,7 +4709,7 @@
         <v>533</v>
       </c>
       <c r="B535" t="n">
-        <v>0.26705</v>
+        <v>0.25588</v>
       </c>
     </row>
     <row r="536">
@@ -4717,7 +4717,7 @@
         <v>534</v>
       </c>
       <c r="B536" t="n">
-        <v>0.25648</v>
+        <v>0.24575</v>
       </c>
     </row>
     <row r="537">
@@ -4725,7 +4725,7 @@
         <v>535</v>
       </c>
       <c r="B537" t="n">
-        <v>0.25102</v>
+        <v>0.24052</v>
       </c>
     </row>
     <row r="538">
@@ -4733,7 +4733,7 @@
         <v>536</v>
       </c>
       <c r="B538" t="n">
-        <v>0.23772</v>
+        <v>0.22778</v>
       </c>
     </row>
     <row r="539">
@@ -4741,7 +4741,7 @@
         <v>537</v>
       </c>
       <c r="B539" t="n">
-        <v>0.24761</v>
+        <v>0.23725</v>
       </c>
     </row>
     <row r="540">
@@ -4749,7 +4749,7 @@
         <v>538</v>
       </c>
       <c r="B540" t="n">
-        <v>0.25819</v>
+        <v>0.24739</v>
       </c>
     </row>
     <row r="541">
@@ -4757,7 +4757,7 @@
         <v>539</v>
       </c>
       <c r="B541" t="n">
-        <v>0.24761</v>
+        <v>0.23725</v>
       </c>
     </row>
     <row r="542">
@@ -4765,7 +4765,7 @@
         <v>540</v>
       </c>
       <c r="B542" t="n">
-        <v>0.23363</v>
+        <v>0.22386</v>
       </c>
     </row>
     <row r="543">
@@ -4773,7 +4773,7 @@
         <v>541</v>
       </c>
       <c r="B543" t="n">
-        <v>0.24045</v>
+        <v>0.23039</v>
       </c>
     </row>
     <row r="544">
@@ -4781,7 +4781,7 @@
         <v>542</v>
       </c>
       <c r="B544" t="n">
-        <v>0.24045</v>
+        <v>0.23039</v>
       </c>
     </row>
     <row r="545">
@@ -4789,7 +4789,7 @@
         <v>543</v>
       </c>
       <c r="B545" t="n">
-        <v>0.23499</v>
+        <v>0.22516</v>
       </c>
     </row>
     <row r="546">
@@ -4797,7 +4797,7 @@
         <v>544</v>
       </c>
       <c r="B546" t="n">
-        <v>0.24591</v>
+        <v>0.23562</v>
       </c>
     </row>
     <row r="547">
@@ -4805,7 +4805,7 @@
         <v>545</v>
       </c>
       <c r="B547" t="n">
-        <v>0.24591</v>
+        <v>0.23562</v>
       </c>
     </row>
     <row r="548">
@@ -4813,7 +4813,7 @@
         <v>546</v>
       </c>
       <c r="B548" t="n">
-        <v>0.24591</v>
+        <v>0.23562</v>
       </c>
     </row>
     <row r="549">
@@ -4821,7 +4821,7 @@
         <v>547</v>
       </c>
       <c r="B549" t="n">
-        <v>0.24045</v>
+        <v>0.23039</v>
       </c>
     </row>
     <row r="550">
@@ -4829,7 +4829,7 @@
         <v>548</v>
       </c>
       <c r="B550" t="n">
-        <v>0.23977</v>
+        <v>0.22974</v>
       </c>
     </row>
     <row r="551">
@@ -4837,7 +4837,7 @@
         <v>549</v>
       </c>
       <c r="B551" t="n">
-        <v>0.24147</v>
+        <v>0.23137</v>
       </c>
     </row>
     <row r="552">
@@ -4845,7 +4845,7 @@
         <v>550</v>
       </c>
       <c r="B552" t="n">
-        <v>0.23874</v>
+        <v>0.22876</v>
       </c>
     </row>
     <row r="553">
@@ -4853,7 +4853,7 @@
         <v>551</v>
       </c>
       <c r="B553" t="n">
-        <v>0.2691</v>
+        <v>0.25784</v>
       </c>
     </row>
     <row r="554">
@@ -4861,7 +4861,7 @@
         <v>552</v>
       </c>
       <c r="B554" t="n">
-        <v>0.26535</v>
+        <v>0.25425</v>
       </c>
     </row>
     <row r="555">
@@ -4869,7 +4869,7 @@
         <v>553</v>
       </c>
       <c r="B555" t="n">
-        <v>0.26023</v>
+        <v>0.24935</v>
       </c>
     </row>
     <row r="556">
@@ -4877,7 +4877,7 @@
         <v>554</v>
       </c>
       <c r="B556" t="n">
-        <v>0.25648</v>
+        <v>0.24575</v>
       </c>
     </row>
     <row r="557">
@@ -4885,7 +4885,7 @@
         <v>555</v>
       </c>
       <c r="B557" t="n">
-        <v>0.26364</v>
+        <v>0.25261</v>
       </c>
     </row>
     <row r="558">
@@ -4893,7 +4893,7 @@
         <v>556</v>
       </c>
       <c r="B558" t="n">
-        <v>0.25375</v>
+        <v>0.24314</v>
       </c>
     </row>
     <row r="559">
@@ -4901,7 +4901,7 @@
         <v>557</v>
       </c>
       <c r="B559" t="n">
-        <v>0.28581</v>
+        <v>0.27386</v>
       </c>
     </row>
     <row r="560">
@@ -4909,7 +4909,7 @@
         <v>558</v>
       </c>
       <c r="B560" t="n">
-        <v>0.29127</v>
+        <v>0.27908</v>
       </c>
     </row>
     <row r="561">
@@ -4917,7 +4917,7 @@
         <v>559</v>
       </c>
       <c r="B561" t="n">
-        <v>0.28308</v>
+        <v>0.27124</v>
       </c>
     </row>
     <row r="562">
@@ -4925,7 +4925,7 @@
         <v>560</v>
       </c>
       <c r="B562" t="n">
-        <v>0.2708</v>
+        <v>0.25948</v>
       </c>
     </row>
     <row r="563">
@@ -4933,7 +4933,7 @@
         <v>561</v>
       </c>
       <c r="B563" t="n">
-        <v>0.30184</v>
+        <v>0.28922</v>
       </c>
     </row>
     <row r="564">
@@ -4941,7 +4941,7 @@
         <v>562</v>
       </c>
       <c r="B564" t="n">
-        <v>0.29297</v>
+        <v>0.28072</v>
       </c>
     </row>
     <row r="565">
@@ -4949,7 +4949,7 @@
         <v>563</v>
       </c>
       <c r="B565" t="n">
-        <v>0.27626</v>
+        <v>0.26471</v>
       </c>
     </row>
     <row r="566">
@@ -4957,7 +4957,7 @@
         <v>564</v>
       </c>
       <c r="B566" t="n">
-        <v>0.27524</v>
+        <v>0.26373</v>
       </c>
     </row>
     <row r="567">
@@ -4965,7 +4965,7 @@
         <v>565</v>
       </c>
       <c r="B567" t="n">
-        <v>0.27251</v>
+        <v>0.26111</v>
       </c>
     </row>
     <row r="568">
@@ -4973,7 +4973,7 @@
         <v>566</v>
       </c>
       <c r="B568" t="n">
-        <v>0.29366</v>
+        <v>0.28137</v>
       </c>
     </row>
     <row r="569">
@@ -4981,7 +4981,7 @@
         <v>567</v>
       </c>
       <c r="B569" t="n">
-        <v>0.28138</v>
+        <v>0.26961</v>
       </c>
     </row>
     <row r="570">
@@ -4989,7 +4989,7 @@
         <v>568</v>
       </c>
       <c r="B570" t="n">
-        <v>0.25819</v>
+        <v>0.24739</v>
       </c>
     </row>
     <row r="571">
@@ -4997,7 +4997,7 @@
         <v>569</v>
       </c>
       <c r="B571" t="n">
-        <v>0.27422</v>
+        <v>0.26275</v>
       </c>
     </row>
     <row r="572">
@@ -5005,7 +5005,7 @@
         <v>570</v>
       </c>
       <c r="B572" t="n">
-        <v>0.27149</v>
+        <v>0.26013</v>
       </c>
     </row>
     <row r="573">
@@ -5013,7 +5013,7 @@
         <v>571</v>
       </c>
       <c r="B573" t="n">
-        <v>0.27353</v>
+        <v>0.26209</v>
       </c>
     </row>
     <row r="574">
@@ -5021,7 +5021,7 @@
         <v>572</v>
       </c>
       <c r="B574" t="n">
-        <v>0.27422</v>
+        <v>0.26275</v>
       </c>
     </row>
     <row r="575">
@@ -5029,7 +5029,7 @@
         <v>573</v>
       </c>
       <c r="B575" t="n">
-        <v>0.2691</v>
+        <v>0.25784</v>
       </c>
     </row>
     <row r="576">
@@ -5037,7 +5037,7 @@
         <v>574</v>
       </c>
       <c r="B576" t="n">
-        <v>0.26023</v>
+        <v>0.24935</v>
       </c>
     </row>
     <row r="577">
@@ -5045,7 +5045,7 @@
         <v>575</v>
       </c>
       <c r="B577" t="n">
-        <v>0.25307</v>
+        <v>0.24248</v>
       </c>
     </row>
     <row r="578">
@@ -5053,7 +5053,7 @@
         <v>576</v>
       </c>
       <c r="B578" t="n">
-        <v>0.25819</v>
+        <v>0.24739</v>
       </c>
     </row>
     <row r="579">
@@ -5061,7 +5061,7 @@
         <v>577</v>
       </c>
       <c r="B579" t="n">
-        <v>0.26023</v>
+        <v>0.24935</v>
       </c>
     </row>
     <row r="580">
@@ -5069,7 +5069,7 @@
         <v>578</v>
       </c>
       <c r="B580" t="n">
-        <v>0.26023</v>
+        <v>0.24935</v>
       </c>
     </row>
     <row r="581">
@@ -5077,7 +5077,7 @@
         <v>579</v>
       </c>
       <c r="B581" t="n">
-        <v>0.27353</v>
+        <v>0.26209</v>
       </c>
     </row>
     <row r="582">
@@ -5085,7 +5085,7 @@
         <v>580</v>
       </c>
       <c r="B582" t="n">
-        <v>0.27353</v>
+        <v>0.26209</v>
       </c>
     </row>
     <row r="583">
@@ -5093,7 +5093,7 @@
         <v>581</v>
       </c>
       <c r="B583" t="n">
-        <v>0.28513</v>
+        <v>0.2732</v>
       </c>
     </row>
     <row r="584">
@@ -5101,7 +5101,7 @@
         <v>582</v>
       </c>
       <c r="B584" t="n">
-        <v>0.27967</v>
+        <v>0.26797</v>
       </c>
     </row>
     <row r="585">
@@ -5109,7 +5109,7 @@
         <v>583</v>
       </c>
       <c r="B585" t="n">
-        <v>0.27763</v>
+        <v>0.26601</v>
       </c>
     </row>
     <row r="586">
@@ -5117,7 +5117,7 @@
         <v>584</v>
       </c>
       <c r="B586" t="n">
-        <v>0.29195</v>
+        <v>0.27974</v>
       </c>
     </row>
     <row r="587">
@@ -5125,7 +5125,7 @@
         <v>585</v>
       </c>
       <c r="B587" t="n">
-        <v>0.31514</v>
+        <v>0.30196</v>
       </c>
     </row>
     <row r="588">
@@ -5133,7 +5133,7 @@
         <v>586</v>
       </c>
       <c r="B588" t="n">
-        <v>0.32913</v>
+        <v>0.31536</v>
       </c>
     </row>
     <row r="589">
@@ -5141,7 +5141,7 @@
         <v>587</v>
       </c>
       <c r="B589" t="n">
-        <v>0.32231</v>
+        <v>0.30882</v>
       </c>
     </row>
     <row r="590">
@@ -5149,7 +5149,7 @@
         <v>588</v>
       </c>
       <c r="B590" t="n">
-        <v>0.29741</v>
+        <v>0.28497</v>
       </c>
     </row>
     <row r="591">
@@ -5157,7 +5157,7 @@
         <v>589</v>
       </c>
       <c r="B591" t="n">
-        <v>0.29195</v>
+        <v>0.27974</v>
       </c>
     </row>
     <row r="592">
@@ -5165,7 +5165,7 @@
         <v>590</v>
       </c>
       <c r="B592" t="n">
-        <v>0.29195</v>
+        <v>0.27974</v>
       </c>
     </row>
     <row r="593">
@@ -5173,7 +5173,7 @@
         <v>591</v>
       </c>
       <c r="B593" t="n">
-        <v>0.28683</v>
+        <v>0.27484</v>
       </c>
     </row>
     <row r="594">
@@ -5181,7 +5181,7 @@
         <v>592</v>
       </c>
       <c r="B594" t="n">
-        <v>0.25819</v>
+        <v>0.24739</v>
       </c>
     </row>
     <row r="595">
@@ -5189,7 +5189,7 @@
         <v>593</v>
       </c>
       <c r="B595" t="n">
-        <v>0.28513</v>
+        <v>0.2732</v>
       </c>
     </row>
     <row r="596">
@@ -5197,7 +5197,7 @@
         <v>594</v>
       </c>
       <c r="B596" t="n">
-        <v>0.2749</v>
+        <v>0.2634</v>
       </c>
     </row>
     <row r="597">
@@ -5205,7 +5205,7 @@
         <v>595</v>
       </c>
       <c r="B597" t="n">
-        <v>0.2616</v>
+        <v>0.25065</v>
       </c>
     </row>
     <row r="598">
@@ -5213,7 +5213,7 @@
         <v>596</v>
       </c>
       <c r="B598" t="n">
-        <v>0.26228</v>
+        <v>0.25131</v>
       </c>
     </row>
     <row r="599">
@@ -5221,7 +5221,7 @@
         <v>597</v>
       </c>
       <c r="B599" t="n">
-        <v>0.24727</v>
+        <v>0.23693</v>
       </c>
     </row>
     <row r="600">
@@ -5229,7 +5229,7 @@
         <v>598</v>
       </c>
       <c r="B600" t="n">
-        <v>0.26228</v>
+        <v>0.25131</v>
       </c>
     </row>
     <row r="601">
@@ -5237,7 +5237,7 @@
         <v>599</v>
       </c>
       <c r="B601" t="n">
-        <v>0.25955</v>
+        <v>0.24869</v>
       </c>
     </row>
     <row r="602">
@@ -5245,7 +5245,7 @@
         <v>600</v>
       </c>
       <c r="B602" t="n">
-        <v>0.26944</v>
+        <v>0.25817</v>
       </c>
     </row>
     <row r="603">
@@ -5253,7 +5253,7 @@
         <v>601</v>
       </c>
       <c r="B603" t="n">
-        <v>0.26774</v>
+        <v>0.25654</v>
       </c>
     </row>
     <row r="604">
@@ -5261,7 +5261,7 @@
         <v>602</v>
       </c>
       <c r="B604" t="n">
-        <v>0.31207</v>
+        <v>0.29902</v>
       </c>
     </row>
     <row r="605">
@@ -5269,7 +5269,7 @@
         <v>603</v>
       </c>
       <c r="B605" t="n">
-        <v>0.33254</v>
+        <v>0.31863</v>
       </c>
     </row>
     <row r="606">
@@ -5277,7 +5277,7 @@
         <v>604</v>
       </c>
       <c r="B606" t="n">
-        <v>0.33697</v>
+        <v>0.32288</v>
       </c>
     </row>
     <row r="607">
@@ -5285,7 +5285,7 @@
         <v>605</v>
       </c>
       <c r="B607" t="n">
-        <v>0.33527</v>
+        <v>0.32124</v>
       </c>
     </row>
     <row r="608">
@@ -5293,7 +5293,7 @@
         <v>606</v>
       </c>
       <c r="B608" t="n">
-        <v>0.38438</v>
+        <v>0.3683</v>
       </c>
     </row>
     <row r="609">
@@ -5301,7 +5301,7 @@
         <v>607</v>
       </c>
       <c r="B609" t="n">
-        <v>0.43656</v>
+        <v>0.4183</v>
       </c>
     </row>
     <row r="610">
@@ -5309,7 +5309,7 @@
         <v>608</v>
       </c>
       <c r="B610" t="n">
-        <v>0.42531</v>
+        <v>0.40752</v>
       </c>
     </row>
     <row r="611">
@@ -5317,7 +5317,7 @@
         <v>609</v>
       </c>
       <c r="B611" t="n">
-        <v>0.41371</v>
+        <v>0.39641</v>
       </c>
     </row>
     <row r="612">
@@ -5325,7 +5325,7 @@
         <v>610</v>
       </c>
       <c r="B612" t="n">
-        <v>0.42974</v>
+        <v>0.41176</v>
       </c>
     </row>
     <row r="613">
@@ -5333,7 +5333,7 @@
         <v>611</v>
       </c>
       <c r="B613" t="n">
-        <v>0.43486</v>
+        <v>0.41667</v>
       </c>
     </row>
     <row r="614">
@@ -5341,7 +5341,7 @@
         <v>612</v>
       </c>
       <c r="B614" t="n">
-        <v>0.46419</v>
+        <v>0.44477</v>
       </c>
     </row>
     <row r="615">
@@ -5349,7 +5349,7 @@
         <v>613</v>
       </c>
       <c r="B615" t="n">
-        <v>0.4502</v>
+        <v>0.43137</v>
       </c>
     </row>
     <row r="616">
@@ -5357,7 +5357,7 @@
         <v>614</v>
       </c>
       <c r="B616" t="n">
-        <v>0.40109</v>
+        <v>0.38431</v>
       </c>
     </row>
     <row r="617">
@@ -5365,7 +5365,7 @@
         <v>615</v>
       </c>
       <c r="B617" t="n">
-        <v>0.40382</v>
+        <v>0.38693</v>
       </c>
     </row>
     <row r="618">
@@ -5373,7 +5373,7 @@
         <v>616</v>
       </c>
       <c r="B618" t="n">
-        <v>0.41166</v>
+        <v>0.39444</v>
       </c>
     </row>
     <row r="619">
@@ -5381,7 +5381,7 @@
         <v>617</v>
       </c>
       <c r="B619" t="n">
-        <v>0.44304</v>
+        <v>0.42451</v>
       </c>
     </row>
     <row r="620">
@@ -5389,7 +5389,7 @@
         <v>618</v>
       </c>
       <c r="B620" t="n">
-        <v>0.43759</v>
+        <v>0.41928</v>
       </c>
     </row>
     <row r="621">
@@ -5397,7 +5397,7 @@
         <v>619</v>
       </c>
       <c r="B621" t="n">
-        <v>0.42769</v>
+        <v>0.4098</v>
       </c>
     </row>
     <row r="622">
@@ -5405,7 +5405,7 @@
         <v>620</v>
       </c>
       <c r="B622" t="n">
-        <v>0.42769</v>
+        <v>0.4098</v>
       </c>
     </row>
     <row r="623">
@@ -5413,7 +5413,7 @@
         <v>621</v>
       </c>
       <c r="B623" t="n">
-        <v>0.44577</v>
+        <v>0.42712</v>
       </c>
     </row>
     <row r="624">
@@ -5421,7 +5421,7 @@
         <v>622</v>
       </c>
       <c r="B624" t="n">
-        <v>0.50273</v>
+        <v>0.4817</v>
       </c>
     </row>
     <row r="625">
@@ -5429,7 +5429,7 @@
         <v>623</v>
       </c>
       <c r="B625" t="n">
-        <v>0.53308</v>
+        <v>0.51078</v>
       </c>
     </row>
     <row r="626">
@@ -5437,7 +5437,7 @@
         <v>624</v>
       </c>
       <c r="B626" t="n">
-        <v>0.52217</v>
+        <v>0.5003300000000001</v>
       </c>
     </row>
     <row r="627">
@@ -5445,7 +5445,7 @@
         <v>625</v>
       </c>
       <c r="B627" t="n">
-        <v>0.52046</v>
+        <v>0.49869</v>
       </c>
     </row>
     <row r="628">
@@ -5453,7 +5453,7 @@
         <v>626</v>
       </c>
       <c r="B628" t="n">
-        <v>0.53308</v>
+        <v>0.51078</v>
       </c>
     </row>
     <row r="629">
@@ -5461,7 +5461,7 @@
         <v>627</v>
       </c>
       <c r="B629" t="n">
-        <v>0.53649</v>
+        <v>0.51405</v>
       </c>
     </row>
     <row r="630">
@@ -5469,7 +5469,7 @@
         <v>628</v>
       </c>
       <c r="B630" t="n">
-        <v>0.56855</v>
+        <v>0.54477</v>
       </c>
     </row>
     <row r="631">
@@ -5477,7 +5477,7 @@
         <v>629</v>
       </c>
       <c r="B631" t="n">
-        <v>0.56651</v>
+        <v>0.54281</v>
       </c>
     </row>
     <row r="632">
@@ -5485,7 +5485,7 @@
         <v>630</v>
       </c>
       <c r="B632" t="n">
-        <v>0.5825399999999999</v>
+        <v>0.5581700000000001</v>
       </c>
     </row>
     <row r="633">
@@ -5493,7 +5493,7 @@
         <v>631</v>
       </c>
       <c r="B633" t="n">
-        <v>0.58458</v>
+        <v>0.56013</v>
       </c>
     </row>
     <row r="634">
@@ -5501,7 +5501,7 @@
         <v>632</v>
       </c>
       <c r="B634" t="n">
-        <v>0.57196</v>
+        <v>0.54804</v>
       </c>
     </row>
     <row r="635">
@@ -5509,7 +5509,7 @@
         <v>633</v>
       </c>
       <c r="B635" t="n">
-        <v>0.59857</v>
+        <v>0.57353</v>
       </c>
     </row>
     <row r="636">
@@ -5517,7 +5517,7 @@
         <v>634</v>
       </c>
       <c r="B636" t="n">
-        <v>0.60061</v>
+        <v>0.5754899999999999</v>
       </c>
     </row>
     <row r="637">
@@ -5525,7 +5525,7 @@
         <v>635</v>
       </c>
       <c r="B637" t="n">
-        <v>0.62517</v>
+        <v>0.59902</v>
       </c>
     </row>
     <row r="638">
@@ -5533,7 +5533,7 @@
         <v>636</v>
       </c>
       <c r="B638" t="n">
-        <v>0.69475</v>
+        <v>0.66569</v>
       </c>
     </row>
     <row r="639">
@@ -5541,7 +5541,7 @@
         <v>637</v>
       </c>
       <c r="B639" t="n">
-        <v>0.71794</v>
+        <v>0.68791</v>
       </c>
     </row>
     <row r="640">
@@ -5549,7 +5549,7 @@
         <v>638</v>
       </c>
       <c r="B640" t="n">
-        <v>0.70362</v>
+        <v>0.67418</v>
       </c>
     </row>
     <row r="641">
@@ -5557,7 +5557,7 @@
         <v>639</v>
       </c>
       <c r="B641" t="n">
-        <v>0.70362</v>
+        <v>0.67418</v>
       </c>
     </row>
     <row r="642">
@@ -5565,7 +5565,7 @@
         <v>640</v>
       </c>
       <c r="B642" t="n">
-        <v>0.74795</v>
+        <v>0.71667</v>
       </c>
     </row>
     <row r="643">
@@ -5573,7 +5573,7 @@
         <v>641</v>
       </c>
       <c r="B643" t="n">
-        <v>0.72851</v>
+        <v>0.69804</v>
       </c>
     </row>
     <row r="644">
@@ -5581,7 +5581,7 @@
         <v>642</v>
       </c>
       <c r="B644" t="n">
-        <v>0.77115</v>
+        <v>0.73889</v>
       </c>
     </row>
     <row r="645">
@@ -5589,7 +5589,7 @@
         <v>643</v>
       </c>
       <c r="B645" t="n">
-        <v>0.74113</v>
+        <v>0.71013</v>
       </c>
     </row>
     <row r="646">
@@ -5597,7 +5597,7 @@
         <v>644</v>
       </c>
       <c r="B646" t="n">
-        <v>0.7053199999999999</v>
+        <v>0.67582</v>
       </c>
     </row>
     <row r="647">
@@ -5605,7 +5605,7 @@
         <v>645</v>
       </c>
       <c r="B647" t="n">
-        <v>0.64836</v>
+        <v>0.62124</v>
       </c>
     </row>
     <row r="648">
@@ -5613,7 +5613,7 @@
         <v>646</v>
       </c>
       <c r="B648" t="n">
-        <v>0.67872</v>
+        <v>0.65033</v>
       </c>
     </row>
     <row r="649">
@@ -5621,7 +5621,7 @@
         <v>647</v>
       </c>
       <c r="B649" t="n">
-        <v>0.67701</v>
+        <v>0.64869</v>
       </c>
     </row>
     <row r="650">
@@ -5629,7 +5629,7 @@
         <v>648</v>
       </c>
       <c r="B650" t="n">
-        <v>0.67497</v>
+        <v>0.64673</v>
       </c>
     </row>
     <row r="651">
@@ -5637,7 +5637,7 @@
         <v>649</v>
       </c>
       <c r="B651" t="n">
-        <v>0.65723</v>
+        <v>0.62974</v>
       </c>
     </row>
     <row r="652">
@@ -5645,7 +5645,7 @@
         <v>650</v>
       </c>
       <c r="B652" t="n">
-        <v>0.65587</v>
+        <v>0.62843</v>
       </c>
     </row>
     <row r="653">
@@ -5653,7 +5653,7 @@
         <v>651</v>
       </c>
       <c r="B653" t="n">
-        <v>0.68588</v>
+        <v>0.6571900000000001</v>
       </c>
     </row>
     <row r="654">
@@ -5661,7 +5661,7 @@
         <v>652</v>
       </c>
       <c r="B654" t="n">
-        <v>0.68588</v>
+        <v>0.6571900000000001</v>
       </c>
     </row>
     <row r="655">
@@ -5669,7 +5669,7 @@
         <v>653</v>
       </c>
       <c r="B655" t="n">
-        <v>0.71965</v>
+        <v>0.68954</v>
       </c>
     </row>
     <row r="656">
@@ -5677,7 +5677,7 @@
         <v>654</v>
       </c>
       <c r="B656" t="n">
-        <v>0.71965</v>
+        <v>0.68954</v>
       </c>
     </row>
     <row r="657">
@@ -5685,7 +5685,7 @@
         <v>655</v>
       </c>
       <c r="B657" t="n">
-        <v>0.71419</v>
+        <v>0.68431</v>
       </c>
     </row>
     <row r="658">
@@ -5693,7 +5693,7 @@
         <v>656</v>
       </c>
       <c r="B658" t="n">
-        <v>0.71248</v>
+        <v>0.68268</v>
       </c>
     </row>
     <row r="659">
@@ -5701,7 +5701,7 @@
         <v>657</v>
       </c>
       <c r="B659" t="n">
-        <v>0.70907</v>
+        <v>0.67941</v>
       </c>
     </row>
     <row r="660">
@@ -5709,7 +5709,7 @@
         <v>658</v>
       </c>
       <c r="B660" t="n">
-        <v>0.72851</v>
+        <v>0.69804</v>
       </c>
     </row>
     <row r="661">
@@ -5717,7 +5717,7 @@
         <v>659</v>
       </c>
       <c r="B661" t="n">
-        <v>0.73192</v>
+        <v>0.70131</v>
       </c>
     </row>
     <row r="662">
@@ -5725,7 +5725,7 @@
         <v>660</v>
       </c>
       <c r="B662" t="n">
-        <v>0.71419</v>
+        <v>0.68431</v>
       </c>
     </row>
     <row r="663">
@@ -5733,7 +5733,7 @@
         <v>661</v>
       </c>
       <c r="B663" t="n">
-        <v>0.69134</v>
+        <v>0.66242</v>
       </c>
     </row>
     <row r="664">
@@ -5741,7 +5741,7 @@
         <v>662</v>
       </c>
       <c r="B664" t="n">
-        <v>0.68929</v>
+        <v>0.66046</v>
       </c>
     </row>
     <row r="665">
@@ -5749,7 +5749,7 @@
         <v>663</v>
       </c>
       <c r="B665" t="n">
-        <v>0.71419</v>
+        <v>0.68431</v>
       </c>
     </row>
     <row r="666">
@@ -5757,7 +5757,7 @@
         <v>664</v>
       </c>
       <c r="B666" t="n">
-        <v>0.71248</v>
+        <v>0.68268</v>
       </c>
     </row>
     <row r="667">
@@ -5765,7 +5765,7 @@
         <v>665</v>
       </c>
       <c r="B667" t="n">
-        <v>0.69645</v>
+        <v>0.66732</v>
       </c>
     </row>
     <row r="668">
@@ -5773,7 +5773,7 @@
         <v>666</v>
       </c>
       <c r="B668" t="n">
-        <v>0.68929</v>
+        <v>0.66046</v>
       </c>
     </row>
     <row r="669">
@@ -5781,7 +5781,7 @@
         <v>667</v>
       </c>
       <c r="B669" t="n">
-        <v>0.7053199999999999</v>
+        <v>0.67582</v>
       </c>
     </row>
     <row r="670">
@@ -5789,7 +5789,7 @@
         <v>668</v>
       </c>
       <c r="B670" t="n">
-        <v>0.72851</v>
+        <v>0.69804</v>
       </c>
     </row>
     <row r="671">
@@ -5797,7 +5797,7 @@
         <v>669</v>
       </c>
       <c r="B671" t="n">
-        <v>0.75</v>
+        <v>0.71863</v>
       </c>
     </row>
     <row r="672">
@@ -5805,7 +5805,7 @@
         <v>670</v>
       </c>
       <c r="B672" t="n">
-        <v>0.76774</v>
+        <v>0.7356200000000001</v>
       </c>
     </row>
     <row r="673">
@@ -5813,7 +5813,7 @@
         <v>671</v>
       </c>
       <c r="B673" t="n">
-        <v>0.76398</v>
+        <v>0.73203</v>
       </c>
     </row>
     <row r="674">
@@ -5821,7 +5821,7 @@
         <v>672</v>
       </c>
       <c r="B674" t="n">
-        <v>0.73905</v>
+        <v>0.70814</v>
       </c>
     </row>
     <row r="675">
@@ -5829,7 +5829,7 @@
         <v>673</v>
       </c>
       <c r="B675" t="n">
-        <v>0.74795</v>
+        <v>0.71667</v>
       </c>
     </row>
     <row r="676">
@@ -5837,7 +5837,7 @@
         <v>674</v>
       </c>
       <c r="B676" t="n">
-        <v>0.75887</v>
+        <v>0.72712</v>
       </c>
     </row>
     <row r="677">
@@ -5845,7 +5845,7 @@
         <v>675</v>
       </c>
       <c r="B677" t="n">
-        <v>0.77285</v>
+        <v>0.74052</v>
       </c>
     </row>
     <row r="678">
@@ -5853,7 +5853,7 @@
         <v>676</v>
       </c>
       <c r="B678" t="n">
-        <v>0.78547</v>
+        <v>0.75261</v>
       </c>
     </row>
     <row r="679">
@@ -5861,7 +5861,7 @@
         <v>677</v>
       </c>
       <c r="B679" t="n">
-        <v>0.78206</v>
+        <v>0.74935</v>
       </c>
     </row>
     <row r="680">
@@ -5869,7 +5869,7 @@
         <v>678</v>
       </c>
       <c r="B680" t="n">
-        <v>0.76774</v>
+        <v>0.7356200000000001</v>
       </c>
     </row>
     <row r="681">
@@ -5877,7 +5877,7 @@
         <v>679</v>
       </c>
       <c r="B681" t="n">
-        <v>0.76944</v>
+        <v>0.73725</v>
       </c>
     </row>
     <row r="682">
@@ -5885,7 +5885,7 @@
         <v>680</v>
       </c>
       <c r="B682" t="n">
-        <v>0.76398</v>
+        <v>0.73203</v>
       </c>
     </row>
     <row r="683">
@@ -5893,7 +5893,7 @@
         <v>681</v>
       </c>
       <c r="B683" t="n">
-        <v>0.76603</v>
+        <v>0.73399</v>
       </c>
     </row>
     <row r="684">
@@ -5901,7 +5901,7 @@
         <v>682</v>
       </c>
       <c r="B684" t="n">
-        <v>0.77865</v>
+        <v>0.74608</v>
       </c>
     </row>
     <row r="685">
@@ -5909,7 +5909,7 @@
         <v>683</v>
       </c>
       <c r="B685" t="n">
-        <v>0.85675</v>
+        <v>0.82092</v>
       </c>
     </row>
     <row r="686">
@@ -5917,7 +5917,7 @@
         <v>684</v>
       </c>
       <c r="B686" t="n">
-        <v>0.87278</v>
+        <v>0.83627</v>
       </c>
     </row>
     <row r="687">
@@ -5925,7 +5925,7 @@
         <v>685</v>
       </c>
       <c r="B687" t="n">
-        <v>0.81924</v>
+        <v>0.7849699999999999</v>
       </c>
     </row>
     <row r="688">
@@ -5933,7 +5933,7 @@
         <v>686</v>
       </c>
       <c r="B688" t="n">
-        <v>0.81037</v>
+        <v>0.77647</v>
       </c>
     </row>
     <row r="689">
@@ -5941,7 +5941,7 @@
         <v>687</v>
       </c>
       <c r="B689" t="n">
-        <v>0.84413</v>
+        <v>0.80882</v>
       </c>
     </row>
     <row r="690">
@@ -5949,7 +5949,7 @@
         <v>688</v>
       </c>
       <c r="B690" t="n">
-        <v>0.84754</v>
+        <v>0.81209</v>
       </c>
     </row>
     <row r="691">
@@ -5957,7 +5957,7 @@
         <v>689</v>
       </c>
       <c r="B691" t="n">
-        <v>0.79434</v>
+        <v>0.76111</v>
       </c>
     </row>
     <row r="692">
@@ -5965,7 +5965,7 @@
         <v>690</v>
       </c>
       <c r="B692" t="n">
-        <v>0.76398</v>
+        <v>0.73203</v>
       </c>
     </row>
     <row r="693">
@@ -5973,7 +5973,7 @@
         <v>691</v>
       </c>
       <c r="B693" t="n">
-        <v>0.73192</v>
+        <v>0.70131</v>
       </c>
     </row>
     <row r="694">
@@ -5981,7 +5981,7 @@
         <v>692</v>
       </c>
       <c r="B694" t="n">
-        <v>0.74113</v>
+        <v>0.71013</v>
       </c>
     </row>
     <row r="695">
@@ -5989,7 +5989,7 @@
         <v>693</v>
       </c>
       <c r="B695" t="n">
-        <v>0.73905</v>
+        <v>0.70814</v>
       </c>
     </row>
     <row r="696">
@@ -5997,7 +5997,7 @@
         <v>694</v>
       </c>
       <c r="B696" t="n">
-        <v>0.71248</v>
+        <v>0.68268</v>
       </c>
     </row>
     <row r="697">
@@ -6005,7 +6005,7 @@
         <v>695</v>
       </c>
       <c r="B697" t="n">
-        <v>0.6985</v>
+        <v>0.66928</v>
       </c>
     </row>
     <row r="698">
@@ -6013,7 +6013,7 @@
         <v>696</v>
       </c>
       <c r="B698" t="n">
-        <v>0.71078</v>
+        <v>0.68105</v>
       </c>
     </row>
     <row r="699">
@@ -6021,7 +6021,7 @@
         <v>697</v>
       </c>
       <c r="B699" t="n">
-        <v>0.70907</v>
+        <v>0.67941</v>
       </c>
     </row>
     <row r="700">
@@ -6029,7 +6029,7 @@
         <v>698</v>
       </c>
       <c r="B700" t="n">
-        <v>0.71419</v>
+        <v>0.68431</v>
       </c>
     </row>
     <row r="701">
@@ -6037,7 +6037,7 @@
         <v>699</v>
       </c>
       <c r="B701" t="n">
-        <v>0.73192</v>
+        <v>0.70131</v>
       </c>
     </row>
     <row r="702">
@@ -6045,7 +6045,7 @@
         <v>700</v>
       </c>
       <c r="B702" t="n">
-        <v>0.7234</v>
+        <v>0.69314</v>
       </c>
     </row>
     <row r="703">
@@ -6053,7 +6053,7 @@
         <v>701</v>
       </c>
       <c r="B703" t="n">
-        <v>0.7053199999999999</v>
+        <v>0.67582</v>
       </c>
     </row>
     <row r="704">
@@ -6061,7 +6061,7 @@
         <v>702</v>
       </c>
       <c r="B704" t="n">
-        <v>0.70191</v>
+        <v>0.67255</v>
       </c>
     </row>
     <row r="705">
@@ -6069,7 +6069,7 @@
         <v>703</v>
       </c>
       <c r="B705" t="n">
-        <v>0.6985</v>
+        <v>0.66928</v>
       </c>
     </row>
     <row r="706">
@@ -6077,7 +6077,7 @@
         <v>704</v>
       </c>
       <c r="B706" t="n">
-        <v>0.70362</v>
+        <v>0.67418</v>
       </c>
     </row>
     <row r="707">
@@ -6085,7 +6085,7 @@
         <v>705</v>
       </c>
       <c r="B707" t="n">
-        <v>0.68383</v>
+        <v>0.65523</v>
       </c>
     </row>
     <row r="708">
@@ -6093,7 +6093,7 @@
         <v>706</v>
       </c>
       <c r="B708" t="n">
-        <v>0.68383</v>
+        <v>0.65523</v>
       </c>
     </row>
     <row r="709">
@@ -6101,7 +6101,7 @@
         <v>707</v>
       </c>
       <c r="B709" t="n">
-        <v>0.68588</v>
+        <v>0.6571900000000001</v>
       </c>
     </row>
     <row r="710">
@@ -6109,7 +6109,7 @@
         <v>708</v>
       </c>
       <c r="B710" t="n">
-        <v>0.66064</v>
+        <v>0.63301</v>
       </c>
     </row>
     <row r="711">
@@ -6117,7 +6117,7 @@
         <v>709</v>
       </c>
       <c r="B711" t="n">
-        <v>0.67872</v>
+        <v>0.65033</v>
       </c>
     </row>
     <row r="712">
@@ -6125,7 +6125,7 @@
         <v>710</v>
       </c>
       <c r="B712" t="n">
-        <v>0.69134</v>
+        <v>0.66242</v>
       </c>
     </row>
     <row r="713">
@@ -6133,7 +6133,7 @@
         <v>711</v>
       </c>
       <c r="B713" t="n">
-        <v>0.69645</v>
+        <v>0.66732</v>
       </c>
     </row>
     <row r="714">
@@ -6141,7 +6141,7 @@
         <v>712</v>
       </c>
       <c r="B714" t="n">
-        <v>0.69645</v>
+        <v>0.66732</v>
       </c>
     </row>
     <row r="715">
@@ -6149,7 +6149,7 @@
         <v>713</v>
       </c>
       <c r="B715" t="n">
-        <v>0.68759</v>
+        <v>0.65882</v>
       </c>
     </row>
     <row r="716">
@@ -6157,7 +6157,7 @@
         <v>714</v>
       </c>
       <c r="B716" t="n">
-        <v>0.69645</v>
+        <v>0.66732</v>
       </c>
     </row>
     <row r="717">
@@ -6165,7 +6165,7 @@
         <v>715</v>
       </c>
       <c r="B717" t="n">
-        <v>0.71419</v>
+        <v>0.68431</v>
       </c>
     </row>
     <row r="718">
@@ -6173,7 +6173,7 @@
         <v>716</v>
       </c>
       <c r="B718" t="n">
-        <v>0.73568</v>
+        <v>0.7049</v>
       </c>
     </row>
     <row r="719">
@@ -6181,7 +6181,7 @@
         <v>717</v>
       </c>
       <c r="B719" t="n">
-        <v>0.69645</v>
+        <v>0.66732</v>
       </c>
     </row>
     <row r="720">
@@ -6189,7 +6189,7 @@
         <v>718</v>
       </c>
       <c r="B720" t="n">
-        <v>0.67872</v>
+        <v>0.65033</v>
       </c>
     </row>
     <row r="721">
@@ -6197,7 +6197,7 @@
         <v>719</v>
       </c>
       <c r="B721" t="n">
-        <v>0.64836</v>
+        <v>0.62124</v>
       </c>
     </row>
     <row r="722">
@@ -6205,7 +6205,7 @@
         <v>720</v>
       </c>
       <c r="B722" t="n">
-        <v>0.60778</v>
+        <v>0.58235</v>
       </c>
     </row>
     <row r="723">
@@ -6213,7 +6213,7 @@
         <v>721</v>
       </c>
       <c r="B723" t="n">
-        <v>0.60778</v>
+        <v>0.58235</v>
       </c>
     </row>
     <row r="724">
@@ -6221,7 +6221,7 @@
         <v>722</v>
       </c>
       <c r="B724" t="n">
-        <v>0.60437</v>
+        <v>0.57908</v>
       </c>
     </row>
     <row r="725">
@@ -6229,7 +6229,7 @@
         <v>723</v>
       </c>
       <c r="B725" t="n">
-        <v>0.59516</v>
+        <v>0.57026</v>
       </c>
     </row>
     <row r="726">
@@ -6237,7 +6237,7 @@
         <v>724</v>
       </c>
       <c r="B726" t="n">
-        <v>0.53649</v>
+        <v>0.51405</v>
       </c>
     </row>
     <row r="727">
@@ -6245,7 +6245,7 @@
         <v>725</v>
       </c>
       <c r="B727" t="n">
-        <v>0.51126</v>
+        <v>0.48987</v>
       </c>
     </row>
     <row r="728">
@@ -6253,7 +6253,7 @@
         <v>726</v>
       </c>
       <c r="B728" t="n">
-        <v>0.57196</v>
+        <v>0.54804</v>
       </c>
     </row>
     <row r="729">
@@ -6261,7 +6261,7 @@
         <v>727</v>
       </c>
       <c r="B729" t="n">
-        <v>0.60198</v>
+        <v>0.5768</v>
       </c>
     </row>
     <row r="730">
@@ -6269,7 +6269,7 @@
         <v>728</v>
       </c>
       <c r="B730" t="n">
-        <v>0.59857</v>
+        <v>0.57353</v>
       </c>
     </row>
     <row r="731">
@@ -6277,7 +6277,7 @@
         <v>729</v>
       </c>
       <c r="B731" t="n">
-        <v>0.5470699999999999</v>
+        <v>0.52418</v>
       </c>
     </row>
     <row r="732">
@@ -6285,7 +6285,7 @@
         <v>730</v>
       </c>
       <c r="B732" t="n">
-        <v>0.5470699999999999</v>
+        <v>0.52418</v>
       </c>
     </row>
     <row r="733">
@@ -6293,7 +6293,7 @@
         <v>731</v>
       </c>
       <c r="B733" t="n">
-        <v>0.54536</v>
+        <v>0.52255</v>
       </c>
     </row>
     <row r="734">
@@ -6301,7 +6301,7 @@
         <v>732</v>
       </c>
       <c r="B734" t="n">
-        <v>0.55048</v>
+        <v>0.52745</v>
       </c>
     </row>
     <row r="735">
@@ -6309,7 +6309,7 @@
         <v>733</v>
       </c>
       <c r="B735" t="n">
-        <v>0.5968599999999999</v>
+        <v>0.5719</v>
       </c>
     </row>
     <row r="736">
@@ -6317,7 +6317,7 @@
         <v>734</v>
       </c>
       <c r="B736" t="n">
-        <v>0.66439</v>
+        <v>0.6366000000000001</v>
       </c>
     </row>
     <row r="737">
@@ -6325,7 +6325,7 @@
         <v>735</v>
       </c>
       <c r="B737" t="n">
-        <v>0.67156</v>
+        <v>0.64346</v>
       </c>
     </row>
     <row r="738">
@@ -6333,7 +6333,7 @@
         <v>736</v>
       </c>
       <c r="B738" t="n">
-        <v>0.69645</v>
+        <v>0.66732</v>
       </c>
     </row>
     <row r="739">
@@ -6341,7 +6341,7 @@
         <v>737</v>
       </c>
       <c r="B739" t="n">
-        <v>0.71487</v>
+        <v>0.68497</v>
       </c>
     </row>
     <row r="740">
@@ -6349,7 +6349,7 @@
         <v>738</v>
       </c>
       <c r="B740" t="n">
-        <v>0.7053199999999999</v>
+        <v>0.67582</v>
       </c>
     </row>
     <row r="741">
@@ -6357,7 +6357,7 @@
         <v>739</v>
       </c>
       <c r="B741" t="n">
-        <v>0.70123</v>
+        <v>0.6719000000000001</v>
       </c>
     </row>
     <row r="742">
@@ -6365,7 +6365,7 @@
         <v>740</v>
       </c>
       <c r="B742" t="n">
-        <v>0.69372</v>
+        <v>0.66471</v>
       </c>
     </row>
     <row r="743">
@@ -6373,7 +6373,7 @@
         <v>741</v>
       </c>
       <c r="B743" t="n">
-        <v>0.71487</v>
+        <v>0.68497</v>
       </c>
     </row>
     <row r="744">
@@ -6381,7 +6381,7 @@
         <v>742</v>
       </c>
       <c r="B744" t="n">
-        <v>0.72851</v>
+        <v>0.69804</v>
       </c>
     </row>
     <row r="745">
@@ -6389,7 +6389,7 @@
         <v>743</v>
       </c>
       <c r="B745" t="n">
-        <v>0.72851</v>
+        <v>0.69804</v>
       </c>
     </row>
     <row r="746">
@@ -6397,7 +6397,7 @@
         <v>744</v>
       </c>
       <c r="B746" t="n">
-        <v>0.73806</v>
+        <v>0.70719</v>
       </c>
     </row>
     <row r="747">
@@ -6405,7 +6405,7 @@
         <v>745</v>
       </c>
       <c r="B747" t="n">
-        <v>0.72851</v>
+        <v>0.69804</v>
       </c>
     </row>
     <row r="748">
@@ -6413,7 +6413,7 @@
         <v>746</v>
       </c>
       <c r="B748" t="n">
-        <v>0.73636</v>
+        <v>0.70556</v>
       </c>
     </row>
     <row r="749">
@@ -6421,7 +6421,7 @@
         <v>747</v>
       </c>
       <c r="B749" t="n">
-        <v>0.72063</v>
+        <v>0.69049</v>
       </c>
     </row>
     <row r="750">
@@ -6429,7 +6429,7 @@
         <v>748</v>
       </c>
       <c r="B750" t="n">
-        <v>0.7053199999999999</v>
+        <v>0.67582</v>
       </c>
     </row>
     <row r="751">
@@ -6437,7 +6437,7 @@
         <v>749</v>
       </c>
       <c r="B751" t="n">
-        <v>0.69577</v>
+        <v>0.66667</v>
       </c>
     </row>
     <row r="752">
@@ -6445,7 +6445,7 @@
         <v>750</v>
       </c>
       <c r="B752" t="n">
-        <v>0.68997</v>
+        <v>0.66111</v>
       </c>
     </row>
     <row r="753">
@@ -6453,7 +6453,7 @@
         <v>751</v>
       </c>
       <c r="B753" t="n">
-        <v>0.68997</v>
+        <v>0.66111</v>
       </c>
     </row>
     <row r="754">
@@ -6461,7 +6461,7 @@
         <v>752</v>
       </c>
       <c r="B754" t="n">
-        <v>0.71112</v>
+        <v>0.68137</v>
       </c>
     </row>
     <row r="755">
@@ -6469,7 +6469,7 @@
         <v>753</v>
       </c>
       <c r="B755" t="n">
-        <v>0.71317</v>
+        <v>0.68333</v>
       </c>
     </row>
     <row r="756">
@@ -6477,7 +6477,7 @@
         <v>754</v>
       </c>
       <c r="B756" t="n">
-        <v>0.7053199999999999</v>
+        <v>0.67582</v>
       </c>
     </row>
     <row r="757">
@@ -6485,7 +6485,7 @@
         <v>755</v>
       </c>
       <c r="B757" t="n">
-        <v>0.68008</v>
+        <v>0.65163</v>
       </c>
     </row>
     <row r="758">
@@ -6493,7 +6493,7 @@
         <v>756</v>
       </c>
       <c r="B758" t="n">
-        <v>0.67633</v>
+        <v>0.6480399999999999</v>
       </c>
     </row>
     <row r="759">
@@ -6501,7 +6501,7 @@
         <v>757</v>
       </c>
       <c r="B759" t="n">
-        <v>0.71112</v>
+        <v>0.68137</v>
       </c>
     </row>
     <row r="760">
@@ -6509,7 +6509,7 @@
         <v>758</v>
       </c>
       <c r="B760" t="n">
-        <v>0.7073700000000001</v>
+        <v>0.67778</v>
       </c>
     </row>
     <row r="761">
@@ -6517,7 +6517,7 @@
         <v>759</v>
       </c>
       <c r="B761" t="n">
-        <v>0.70123</v>
+        <v>0.6719000000000001</v>
       </c>
     </row>
     <row r="762">
@@ -6525,7 +6525,7 @@
         <v>760</v>
       </c>
       <c r="B762" t="n">
-        <v>0.7053199999999999</v>
+        <v>0.67582</v>
       </c>
     </row>
     <row r="763">
@@ -6533,7 +6533,7 @@
         <v>761</v>
       </c>
       <c r="B763" t="n">
-        <v>0.7053199999999999</v>
+        <v>0.67582</v>
       </c>
     </row>
     <row r="764">
@@ -6541,7 +6541,7 @@
         <v>762</v>
       </c>
       <c r="B764" t="n">
-        <v>0.77899</v>
+        <v>0.74641</v>
       </c>
     </row>
     <row r="765">
@@ -6549,7 +6549,7 @@
         <v>763</v>
       </c>
       <c r="B765" t="n">
-        <v>0.78274</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="766">
@@ -6557,7 +6557,7 @@
         <v>764</v>
       </c>
       <c r="B766" t="n">
-        <v>0.77319</v>
+        <v>0.74085</v>
       </c>
     </row>
     <row r="767">
@@ -6565,7 +6565,7 @@
         <v>765</v>
       </c>
       <c r="B767" t="n">
-        <v>0.69952</v>
+        <v>0.67026</v>
       </c>
     </row>
     <row r="768">
@@ -6573,7 +6573,7 @@
         <v>766</v>
       </c>
       <c r="B768" t="n">
-        <v>0.71896</v>
+        <v>0.68889</v>
       </c>
     </row>
     <row r="769">
@@ -6581,7 +6581,7 @@
         <v>767</v>
       </c>
       <c r="B769" t="n">
-        <v>0.72476</v>
+        <v>0.6944399999999999</v>
       </c>
     </row>
     <row r="770">
@@ -6589,7 +6589,7 @@
         <v>768</v>
       </c>
       <c r="B770" t="n">
-        <v>0.71896</v>
+        <v>0.68889</v>
       </c>
     </row>
     <row r="771">
@@ -6597,7 +6597,7 @@
         <v>769</v>
       </c>
       <c r="B771" t="n">
-        <v>0.71112</v>
+        <v>0.68137</v>
       </c>
     </row>
     <row r="772">
@@ -6605,7 +6605,7 @@
         <v>770</v>
       </c>
       <c r="B772" t="n">
-        <v>0.78683</v>
+        <v>0.75392</v>
       </c>
     </row>
     <row r="773">
@@ -6613,7 +6613,7 @@
         <v>771</v>
       </c>
       <c r="B773" t="n">
-        <v>0.81412</v>
+        <v>0.78007</v>
       </c>
     </row>
     <row r="774">
@@ -6621,7 +6621,7 @@
         <v>772</v>
       </c>
       <c r="B774" t="n">
-        <v>0.85095</v>
+        <v>0.81536</v>
       </c>
     </row>
     <row r="775">
@@ -6629,7 +6629,7 @@
         <v>773</v>
       </c>
       <c r="B775" t="n">
-        <v>0.8605</v>
+        <v>0.82451</v>
       </c>
     </row>
     <row r="776">
@@ -6637,7 +6637,7 @@
         <v>774</v>
       </c>
       <c r="B776" t="n">
-        <v>0.8468599999999999</v>
+        <v>0.8114400000000001</v>
       </c>
     </row>
     <row r="777">
@@ -6645,7 +6645,7 @@
         <v>775</v>
       </c>
       <c r="B777" t="n">
-        <v>0.85675</v>
+        <v>0.82092</v>
       </c>
     </row>
     <row r="778">
@@ -6653,7 +6653,7 @@
         <v>776</v>
       </c>
       <c r="B778" t="n">
-        <v>0.8895</v>
+        <v>0.85229</v>
       </c>
     </row>
     <row r="779">
@@ -6661,7 +6661,7 @@
         <v>777</v>
       </c>
       <c r="B779" t="n">
-        <v>0.89905</v>
+        <v>0.86144</v>
       </c>
     </row>
     <row r="780">
@@ -6669,7 +6669,7 @@
         <v>778</v>
       </c>
       <c r="B780" t="n">
-        <v>0.8646</v>
+        <v>0.82843</v>
       </c>
     </row>
     <row r="781">
@@ -6677,7 +6677,7 @@
         <v>779</v>
       </c>
       <c r="B781" t="n">
-        <v>0.87005</v>
+        <v>0.83366</v>
       </c>
     </row>
     <row r="782">
@@ -6685,7 +6685,7 @@
         <v>780</v>
       </c>
       <c r="B782" t="n">
-        <v>0.88779</v>
+        <v>0.85065</v>
       </c>
     </row>
     <row r="783">
@@ -6693,7 +6693,7 @@
         <v>781</v>
       </c>
       <c r="B783" t="n">
-        <v>0.90723</v>
+        <v>0.8692800000000001</v>
       </c>
     </row>
     <row r="784">
@@ -6701,7 +6701,7 @@
         <v>782</v>
       </c>
       <c r="B784" t="n">
-        <v>0.96521</v>
+        <v>0.92484</v>
       </c>
     </row>
     <row r="785">
@@ -6709,7 +6709,7 @@
         <v>783</v>
       </c>
       <c r="B785" t="n">
-        <v>1</v>
+        <v>0.95817</v>
       </c>
     </row>
     <row r="786">
@@ -6717,7 +6717,7 @@
         <v>784</v>
       </c>
       <c r="B786" t="n">
-        <v>0.90484</v>
+        <v>0.86699</v>
       </c>
     </row>
     <row r="787">
@@ -6725,7 +6725,7 @@
         <v>785</v>
       </c>
       <c r="B787" t="n">
-        <v>0.98636</v>
+        <v>0.9451000000000001</v>
       </c>
     </row>
     <row r="788">
@@ -6733,7 +6733,7 @@
         <v>786</v>
       </c>
       <c r="B788" t="n">
-        <v>0.96726</v>
+        <v>0.9268</v>
       </c>
     </row>
     <row r="789">
@@ -6741,7 +6741,7 @@
         <v>787</v>
       </c>
       <c r="B789" t="n">
-        <v>0.92258</v>
+        <v>0.8839900000000001</v>
       </c>
     </row>
     <row r="790">
@@ -6749,7 +6749,7 @@
         <v>788</v>
       </c>
       <c r="B790" t="n">
-        <v>0.83322</v>
+        <v>0.79837</v>
       </c>
     </row>
     <row r="791">
@@ -6757,7 +6757,7 @@
         <v>789</v>
       </c>
       <c r="B791" t="n">
-        <v>0.85471</v>
+        <v>0.81895</v>
       </c>
     </row>
     <row r="792">
@@ -6765,7 +6765,7 @@
         <v>790</v>
       </c>
       <c r="B792" t="n">
-        <v>0.8646</v>
+        <v>0.82843</v>
       </c>
     </row>
     <row r="793">
@@ -6773,7 +6773,7 @@
         <v>791</v>
       </c>
       <c r="B793" t="n">
-        <v>0.87585</v>
+        <v>0.83922</v>
       </c>
     </row>
     <row r="794">
@@ -6781,7 +6781,7 @@
         <v>792</v>
       </c>
       <c r="B794" t="n">
-        <v>0.88574</v>
+        <v>0.8486900000000001</v>
       </c>
     </row>
     <row r="795">
@@ -6789,7 +6789,7 @@
         <v>793</v>
       </c>
       <c r="B795" t="n">
-        <v>0.8646</v>
+        <v>0.82843</v>
       </c>
     </row>
     <row r="796">
@@ -6797,7 +6797,7 @@
         <v>794</v>
       </c>
       <c r="B796" t="n">
-        <v>0.8837</v>
+        <v>0.84673</v>
       </c>
     </row>
     <row r="797">
@@ -6805,7 +6805,7 @@
         <v>795</v>
       </c>
       <c r="B797" t="n">
-        <v>0.85471</v>
+        <v>0.81895</v>
       </c>
     </row>
     <row r="798">
@@ -6813,7 +6813,7 @@
         <v>796</v>
       </c>
       <c r="B798" t="n">
-        <v>0.84106</v>
+        <v>0.80588</v>
       </c>
     </row>
     <row r="799">
@@ -6821,7 +6821,7 @@
         <v>797</v>
       </c>
       <c r="B799" t="n">
-        <v>0.81992</v>
+        <v>0.78562</v>
       </c>
     </row>
     <row r="800">
@@ -6829,7 +6829,7 @@
         <v>798</v>
       </c>
       <c r="B800" t="n">
-        <v>0.83731</v>
+        <v>0.8022899999999999</v>
       </c>
     </row>
     <row r="801">
@@ -6837,7 +6837,7 @@
         <v>799</v>
       </c>
       <c r="B801" t="n">
-        <v>0.77319</v>
+        <v>0.74085</v>
       </c>
     </row>
     <row r="802">
@@ -6845,7 +6845,7 @@
         <v>800</v>
       </c>
       <c r="B802" t="n">
-        <v>0.73261</v>
+        <v>0.70196</v>
       </c>
     </row>
     <row r="803">
@@ -6853,7 +6853,7 @@
         <v>801</v>
       </c>
       <c r="B803" t="n">
-        <v>0.67633</v>
+        <v>0.6480399999999999</v>
       </c>
     </row>
     <row r="804">
@@ -6861,7 +6861,7 @@
         <v>802</v>
       </c>
       <c r="B804" t="n">
-        <v>0.73428</v>
+        <v>0.70356</v>
       </c>
     </row>
     <row r="805">
@@ -6869,7 +6869,7 @@
         <v>803</v>
       </c>
       <c r="B805" t="n">
-        <v>0.77319</v>
+        <v>0.74085</v>
       </c>
     </row>
     <row r="806">
@@ -6877,7 +6877,7 @@
         <v>804</v>
       </c>
       <c r="B806" t="n">
-        <v>0.72063</v>
+        <v>0.69049</v>
       </c>
     </row>
     <row r="807">
@@ -6885,7 +6885,7 @@
         <v>805</v>
       </c>
       <c r="B807" t="n">
-        <v>0.76364</v>
+        <v>0.7317</v>
       </c>
     </row>
     <row r="808">
@@ -6893,7 +6893,7 @@
         <v>806</v>
       </c>
       <c r="B808" t="n">
-        <v>0.7442</v>
+        <v>0.71307</v>
       </c>
     </row>
     <row r="809">
@@ -6901,7 +6901,7 @@
         <v>807</v>
       </c>
       <c r="B809" t="n">
-        <v>0.71112</v>
+        <v>0.68137</v>
       </c>
     </row>
     <row r="810">
@@ -6909,7 +6909,7 @@
         <v>808</v>
       </c>
       <c r="B810" t="n">
-        <v>0.77319</v>
+        <v>0.74085</v>
       </c>
     </row>
     <row r="811">
@@ -6917,7 +6917,7 @@
         <v>809</v>
       </c>
       <c r="B811" t="n">
-        <v>0.77319</v>
+        <v>0.74085</v>
       </c>
     </row>
     <row r="812">
@@ -6925,7 +6925,7 @@
         <v>810</v>
       </c>
       <c r="B812" t="n">
-        <v>0.80798</v>
+        <v>0.77418</v>
       </c>
     </row>
     <row r="813">
@@ -6933,7 +6933,7 @@
         <v>811</v>
       </c>
       <c r="B813" t="n">
-        <v>0.80798</v>
+        <v>0.77418</v>
       </c>
     </row>
     <row r="814">
@@ -6941,7 +6941,7 @@
         <v>812</v>
       </c>
       <c r="B814" t="n">
-        <v>0.79638</v>
+        <v>0.76307</v>
       </c>
     </row>
     <row r="815">
@@ -6949,7 +6949,7 @@
         <v>813</v>
       </c>
       <c r="B815" t="n">
-        <v>0.7595499999999999</v>
+        <v>0.72778</v>
       </c>
     </row>
     <row r="816">
@@ -6957,7 +6957,7 @@
         <v>814</v>
       </c>
       <c r="B816" t="n">
-        <v>0.77115</v>
+        <v>0.73889</v>
       </c>
     </row>
     <row r="817">
@@ -6965,7 +6965,7 @@
         <v>815</v>
       </c>
       <c r="B817" t="n">
-        <v>0.81173</v>
+        <v>0.77778</v>
       </c>
     </row>
     <row r="818">
@@ -6973,7 +6973,7 @@
         <v>816</v>
       </c>
       <c r="B818" t="n">
-        <v>0.80048</v>
+        <v>0.7669899999999999</v>
       </c>
     </row>
     <row r="819">
@@ -6981,7 +6981,7 @@
         <v>817</v>
       </c>
       <c r="B819" t="n">
-        <v>0.7926299999999999</v>
+        <v>0.75948</v>
       </c>
     </row>
     <row r="820">
@@ -6989,7 +6989,7 @@
         <v>818</v>
       </c>
       <c r="B820" t="n">
-        <v>0.80798</v>
+        <v>0.77418</v>
       </c>
     </row>
     <row r="821">
@@ -6997,7 +6997,7 @@
         <v>819</v>
       </c>
       <c r="B821" t="n">
-        <v>0.81173</v>
+        <v>0.77778</v>
       </c>
     </row>
     <row r="822">
@@ -7005,7 +7005,7 @@
         <v>820</v>
       </c>
       <c r="B822" t="n">
-        <v>0.79093</v>
+        <v>0.75784</v>
       </c>
     </row>
     <row r="823">
@@ -7013,7 +7013,7 @@
         <v>821</v>
       </c>
       <c r="B823" t="n">
-        <v>0.7442</v>
+        <v>0.71307</v>
       </c>
     </row>
     <row r="824">
@@ -7021,7 +7021,7 @@
         <v>822</v>
       </c>
       <c r="B824" t="n">
-        <v>0.73636</v>
+        <v>0.70556</v>
       </c>
     </row>
     <row r="825">
@@ -7029,7 +7029,7 @@
         <v>823</v>
       </c>
       <c r="B825" t="n">
-        <v>0.71487</v>
+        <v>0.68497</v>
       </c>
     </row>
     <row r="826">
@@ -7037,7 +7037,7 @@
         <v>824</v>
       </c>
       <c r="B826" t="n">
-        <v>0.7575</v>
+        <v>0.72582</v>
       </c>
     </row>
     <row r="827">
@@ -7045,7 +7045,7 @@
         <v>825</v>
       </c>
       <c r="B827" t="n">
-        <v>0.7404500000000001</v>
+        <v>0.70948</v>
       </c>
     </row>
     <row r="828">
@@ -7053,7 +7053,7 @@
         <v>826</v>
       </c>
       <c r="B828" t="n">
-        <v>0.70123</v>
+        <v>0.6719000000000001</v>
       </c>
     </row>
     <row r="829">
@@ -7061,7 +7061,7 @@
         <v>827</v>
       </c>
       <c r="B829" t="n">
-        <v>0.70123</v>
+        <v>0.6719000000000001</v>
       </c>
     </row>
     <row r="830">
@@ -7069,7 +7069,7 @@
         <v>828</v>
       </c>
       <c r="B830" t="n">
-        <v>0.71112</v>
+        <v>0.68137</v>
       </c>
     </row>
     <row r="831">
@@ -7077,7 +7077,7 @@
         <v>829</v>
       </c>
       <c r="B831" t="n">
-        <v>0.69577</v>
+        <v>0.66667</v>
       </c>
     </row>
     <row r="832">
@@ -7085,7 +7085,7 @@
         <v>830</v>
       </c>
       <c r="B832" t="n">
-        <v>0.75409</v>
+        <v>0.72255</v>
       </c>
     </row>
     <row r="833">
@@ -7093,7 +7093,7 @@
         <v>831</v>
       </c>
       <c r="B833" t="n">
-        <v>0.79093</v>
+        <v>0.75784</v>
       </c>
     </row>
     <row r="834">
@@ -7101,7 +7101,7 @@
         <v>832</v>
       </c>
       <c r="B834" t="n">
-        <v>0.79093</v>
+        <v>0.75784</v>
       </c>
     </row>
     <row r="835">
@@ -7109,7 +7109,7 @@
         <v>833</v>
       </c>
       <c r="B835" t="n">
-        <v>0.76944</v>
+        <v>0.73725</v>
       </c>
     </row>
     <row r="836">
@@ -7117,7 +7117,7 @@
         <v>834</v>
       </c>
       <c r="B836" t="n">
-        <v>0.76364</v>
+        <v>0.7317</v>
       </c>
     </row>
     <row r="837">
@@ -7125,7 +7125,7 @@
         <v>835</v>
       </c>
       <c r="B837" t="n">
-        <v>0.83117</v>
+        <v>0.79641</v>
       </c>
     </row>
     <row r="838">
@@ -7133,7 +7133,7 @@
         <v>836</v>
       </c>
       <c r="B838" t="n">
-        <v>0.76364</v>
+        <v>0.7317</v>
       </c>
     </row>
     <row r="839">
@@ -7141,7 +7141,7 @@
         <v>837</v>
       </c>
       <c r="B839" t="n">
-        <v>0.75</v>
+        <v>0.71863</v>
       </c>
     </row>
     <row r="840">
@@ -7149,7 +7149,7 @@
         <v>838</v>
       </c>
       <c r="B840" t="n">
-        <v>0.73053</v>
+        <v>0.69997</v>
       </c>
     </row>
     <row r="841">
@@ -7157,7 +7157,7 @@
         <v>839</v>
       </c>
       <c r="B841" t="n">
-        <v>0.73428</v>
+        <v>0.70356</v>
       </c>
     </row>
     <row r="842">
@@ -7165,7 +7165,7 @@
         <v>840</v>
       </c>
       <c r="B842" t="n">
-        <v>0.73428</v>
+        <v>0.70356</v>
       </c>
     </row>
     <row r="843">
@@ -7173,7 +7173,7 @@
         <v>841</v>
       </c>
       <c r="B843" t="n">
-        <v>0.73053</v>
+        <v>0.69997</v>
       </c>
     </row>
     <row r="844">
@@ -7181,7 +7181,7 @@
         <v>842</v>
       </c>
       <c r="B844" t="n">
-        <v>0.76364</v>
+        <v>0.7317</v>
       </c>
     </row>
     <row r="845">
@@ -7189,7 +7189,7 @@
         <v>843</v>
       </c>
       <c r="B845" t="n">
-        <v>0.78104</v>
+        <v>0.74837</v>
       </c>
     </row>
     <row r="846">
@@ -7197,7 +7197,7 @@
         <v>844</v>
       </c>
       <c r="B846" t="n">
-        <v>0.78274</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="847">
@@ -7205,7 +7205,7 @@
         <v>845</v>
       </c>
       <c r="B847" t="n">
-        <v>0.76739</v>
+        <v>0.73529</v>
       </c>
     </row>
     <row r="848">
@@ -7213,7 +7213,7 @@
         <v>846</v>
       </c>
       <c r="B848" t="n">
-        <v>0.77319</v>
+        <v>0.74085</v>
       </c>
     </row>
     <row r="849">
@@ -7221,7 +7221,7 @@
         <v>847</v>
       </c>
       <c r="B849" t="n">
-        <v>0.75171</v>
+        <v>0.72026</v>
       </c>
     </row>
     <row r="850">
@@ -7229,7 +7229,7 @@
         <v>848</v>
       </c>
       <c r="B850" t="n">
-        <v>0.77115</v>
+        <v>0.73889</v>
       </c>
     </row>
     <row r="851">
@@ -7237,7 +7237,7 @@
         <v>849</v>
       </c>
       <c r="B851" t="n">
-        <v>0.77319</v>
+        <v>0.74085</v>
       </c>
     </row>
     <row r="852">
@@ -7245,7 +7245,7 @@
         <v>850</v>
       </c>
       <c r="B852" t="n">
-        <v>0.73428</v>
+        <v>0.70356</v>
       </c>
     </row>
     <row r="853">
@@ -7253,7 +7253,7 @@
         <v>851</v>
       </c>
       <c r="B853" t="n">
-        <v>0.77115</v>
+        <v>0.73889</v>
       </c>
     </row>
     <row r="854">
@@ -7261,7 +7261,7 @@
         <v>852</v>
       </c>
       <c r="B854" t="n">
-        <v>0.76535</v>
+        <v>0.73333</v>
       </c>
     </row>
     <row r="855">
@@ -7269,7 +7269,7 @@
         <v>853</v>
       </c>
       <c r="B855" t="n">
-        <v>0.78104</v>
+        <v>0.74837</v>
       </c>
     </row>
     <row r="856">
@@ -7277,7 +7277,7 @@
         <v>854</v>
       </c>
       <c r="B856" t="n">
-        <v>0.7595499999999999</v>
+        <v>0.72778</v>
       </c>
     </row>
     <row r="857">
@@ -7285,7 +7285,7 @@
         <v>855</v>
       </c>
       <c r="B857" t="n">
-        <v>0.77115</v>
+        <v>0.73889</v>
       </c>
     </row>
     <row r="858">
@@ -7293,7 +7293,7 @@
         <v>856</v>
       </c>
       <c r="B858" t="n">
-        <v>0.82538</v>
+        <v>0.7908500000000001</v>
       </c>
     </row>
     <row r="859">
@@ -7301,7 +7301,7 @@
         <v>857</v>
       </c>
       <c r="B859" t="n">
-        <v>0.81173</v>
+        <v>0.77778</v>
       </c>
     </row>
     <row r="860">
@@ -7309,7 +7309,7 @@
         <v>858</v>
       </c>
       <c r="B860" t="n">
-        <v>0.81173</v>
+        <v>0.77778</v>
       </c>
     </row>
     <row r="861">
@@ -7317,7 +7317,7 @@
         <v>859</v>
       </c>
       <c r="B861" t="n">
-        <v>0.84482</v>
+        <v>0.80948</v>
       </c>
     </row>
     <row r="862">
@@ -7325,7 +7325,7 @@
         <v>860</v>
       </c>
       <c r="B862" t="n">
-        <v>0.84106</v>
+        <v>0.80588</v>
       </c>
     </row>
     <row r="863">
@@ -7333,7 +7333,7 @@
         <v>861</v>
       </c>
       <c r="B863" t="n">
-        <v>0.84106</v>
+        <v>0.80588</v>
       </c>
     </row>
     <row r="864">
@@ -7341,7 +7341,7 @@
         <v>862</v>
       </c>
       <c r="B864" t="n">
-        <v>0.85095</v>
+        <v>0.81536</v>
       </c>
     </row>
     <row r="865">
@@ -7349,7 +7349,7 @@
         <v>863</v>
       </c>
       <c r="B865" t="n">
-        <v>0.82947</v>
+        <v>0.79477</v>
       </c>
     </row>
     <row r="866">
@@ -7357,7 +7357,7 @@
         <v>864</v>
       </c>
       <c r="B866" t="n">
-        <v>0.83902</v>
+        <v>0.80392</v>
       </c>
     </row>
     <row r="867">
@@ -7365,7 +7365,7 @@
         <v>865</v>
       </c>
       <c r="B867" t="n">
-        <v>0.8721</v>
+        <v>0.83562</v>
       </c>
     </row>
     <row r="868">
@@ -7373,7 +7373,7 @@
         <v>866</v>
       </c>
       <c r="B868" t="n">
-        <v>0.93213</v>
+        <v>0.89314</v>
       </c>
     </row>
     <row r="869">
@@ -7381,7 +7381,7 @@
         <v>867</v>
       </c>
       <c r="B869" t="n">
-        <v>0.94168</v>
+        <v>0.90229</v>
       </c>
     </row>
     <row r="870">
@@ -7389,7 +7389,7 @@
         <v>868</v>
       </c>
       <c r="B870" t="n">
-        <v>0.93827</v>
+        <v>0.89902</v>
       </c>
     </row>
     <row r="871">
@@ -7397,7 +7397,7 @@
         <v>869</v>
       </c>
       <c r="B871" t="n">
-        <v>0.96726</v>
+        <v>0.9268</v>
       </c>
     </row>
     <row r="872">
@@ -7405,7 +7405,7 @@
         <v>870</v>
       </c>
       <c r="B872" t="n">
-        <v>0.94407</v>
+        <v>0.9045800000000001</v>
       </c>
     </row>
     <row r="873">
@@ -7413,7 +7413,7 @@
         <v>871</v>
       </c>
       <c r="B873" t="n">
-        <v>0.92838</v>
+        <v>0.88954</v>
       </c>
     </row>
     <row r="874">
@@ -7421,7 +7421,7 @@
         <v>872</v>
       </c>
       <c r="B874" t="n">
-        <v>0.92053</v>
+        <v>0.88203</v>
       </c>
     </row>
     <row r="875">
@@ -7429,7 +7429,7 @@
         <v>873</v>
       </c>
       <c r="B875" t="n">
-        <v>0.87005</v>
+        <v>0.83366</v>
       </c>
     </row>
     <row r="876">
@@ -7437,7 +7437,7 @@
         <v>874</v>
       </c>
       <c r="B876" t="n">
-        <v>0.82947</v>
+        <v>0.79477</v>
       </c>
     </row>
     <row r="877">
@@ -7445,7 +7445,351 @@
         <v>875</v>
       </c>
       <c r="B877" t="n">
-        <v>0.7926299999999999</v>
+        <v>0.75948</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" s="1" t="n">
+        <v>876</v>
+      </c>
+      <c r="B878" t="n">
+        <v>0.7761400000000001</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" s="1" t="n">
+        <v>877</v>
+      </c>
+      <c r="B879" t="n">
+        <v>0.78725</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" s="1" t="n">
+        <v>878</v>
+      </c>
+      <c r="B880" t="n">
+        <v>0.74085</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" s="1" t="n">
+        <v>879</v>
+      </c>
+      <c r="B881" t="n">
+        <v>0.76863</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" s="1" t="n">
+        <v>880</v>
+      </c>
+      <c r="B882" t="n">
+        <v>0.84673</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" s="1" t="n">
+        <v>881</v>
+      </c>
+      <c r="B883" t="n">
+        <v>0.81699</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" s="1" t="n">
+        <v>882</v>
+      </c>
+      <c r="B884" t="n">
+        <v>0.82451</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" s="1" t="n">
+        <v>883</v>
+      </c>
+      <c r="B885" t="n">
+        <v>0.84118</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" s="1" t="n">
+        <v>884</v>
+      </c>
+      <c r="B886" t="n">
+        <v>0.9232</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" s="1" t="n">
+        <v>885</v>
+      </c>
+      <c r="B887" t="n">
+        <v>0.94608</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" s="1" t="n">
+        <v>886</v>
+      </c>
+      <c r="B888" t="n">
+        <v>0.9385599999999999</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" s="1" t="n">
+        <v>887</v>
+      </c>
+      <c r="B889" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" s="1" t="n">
+        <v>888</v>
+      </c>
+      <c r="B890" t="n">
+        <v>0.99477</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" s="1" t="n">
+        <v>889</v>
+      </c>
+      <c r="B891" t="n">
+        <v>0.96144</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" s="1" t="n">
+        <v>890</v>
+      </c>
+      <c r="B892" t="n">
+        <v>0.97418</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" s="1" t="n">
+        <v>891</v>
+      </c>
+      <c r="B893" t="n">
+        <v>0.94608</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" s="1" t="n">
+        <v>892</v>
+      </c>
+      <c r="B894" t="n">
+        <v>0.94608</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" s="1" t="n">
+        <v>893</v>
+      </c>
+      <c r="B895" t="n">
+        <v>0.9385599999999999</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" s="1" t="n">
+        <v>894</v>
+      </c>
+      <c r="B896" t="n">
+        <v>0.85915</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" s="1" t="n">
+        <v>895</v>
+      </c>
+      <c r="B897" t="n">
+        <v>0.88235</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" s="1" t="n">
+        <v>896</v>
+      </c>
+      <c r="B898" t="n">
+        <v>0.83105</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" s="1" t="n">
+        <v>897</v>
+      </c>
+      <c r="B899" t="n">
+        <v>0.7849699999999999</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" s="1" t="n">
+        <v>898</v>
+      </c>
+      <c r="B900" t="n">
+        <v>0.81569</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" s="1" t="n">
+        <v>899</v>
+      </c>
+      <c r="B901" t="n">
+        <v>0.73399</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" s="1" t="n">
+        <v>900</v>
+      </c>
+      <c r="B902" t="n">
+        <v>0.75556</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" s="1" t="n">
+        <v>901</v>
+      </c>
+      <c r="B903" t="n">
+        <v>0.78235</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" s="1" t="n">
+        <v>902</v>
+      </c>
+      <c r="B904" t="n">
+        <v>0.73529</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" s="1" t="n">
+        <v>903</v>
+      </c>
+      <c r="B905" t="n">
+        <v>0.6598000000000001</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" s="1" t="n">
+        <v>904</v>
+      </c>
+      <c r="B906" t="n">
+        <v>0.70585</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" s="1" t="n">
+        <v>905</v>
+      </c>
+      <c r="B907" t="n">
+        <v>0.6317</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" s="1" t="n">
+        <v>906</v>
+      </c>
+      <c r="B908" t="n">
+        <v>0.68268</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" s="1" t="n">
+        <v>907</v>
+      </c>
+      <c r="B909" t="n">
+        <v>0.71601</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" s="1" t="n">
+        <v>908</v>
+      </c>
+      <c r="B910" t="n">
+        <v>0.67778</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" s="1" t="n">
+        <v>909</v>
+      </c>
+      <c r="B911" t="n">
+        <v>0.66732</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" s="1" t="n">
+        <v>910</v>
+      </c>
+      <c r="B912" t="n">
+        <v>0.67516</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" s="1" t="n">
+        <v>911</v>
+      </c>
+      <c r="B913" t="n">
+        <v>0.69049</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" s="1" t="n">
+        <v>912</v>
+      </c>
+      <c r="B914" t="n">
+        <v>0.69049</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" s="1" t="n">
+        <v>913</v>
+      </c>
+      <c r="B915" t="n">
+        <v>0.67516</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" s="1" t="n">
+        <v>914</v>
+      </c>
+      <c r="B916" t="n">
+        <v>0.61634</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" s="1" t="n">
+        <v>915</v>
+      </c>
+      <c r="B917" t="n">
+        <v>0.64183</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" s="1" t="n">
+        <v>916</v>
+      </c>
+      <c r="B918" t="n">
+        <v>0.65196</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" s="1" t="n">
+        <v>917</v>
+      </c>
+      <c r="B919" t="n">
+        <v>0.66111</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" s="1" t="n">
+        <v>918</v>
+      </c>
+      <c r="B920" t="n">
+        <v>0.6571900000000001</v>
       </c>
     </row>
   </sheetData>
